--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>694655.7571499962</v>
+        <v>690137.1623602838</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30081121.17983804</v>
+        <v>30081121.17983803</v>
       </c>
     </row>
     <row r="8">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>233.1219349897989</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.335634390144</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>66.75761669107149</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>255.6145573178477</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7151947094264</v>
+        <v>80.54385361358952</v>
       </c>
       <c r="H13" t="n">
         <v>134.5413714187498</v>
       </c>
       <c r="I13" t="n">
-        <v>72.33078139503004</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.03595981372203</v>
+        <v>7.035959813722023</v>
       </c>
       <c r="S13" t="n">
-        <v>153.1115464721752</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T13" t="n">
         <v>237.149349835783</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3346473620106</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>87.47434561156918</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H14" t="n">
         <v>274.8164617558294</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T14" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V14" t="n">
-        <v>325.460302527849</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>209.2420668477528</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>61.03163095145347</v>
+        <v>61.03163095145346</v>
       </c>
       <c r="T15" t="n">
         <v>136.2340891864179</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.011583049771897</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.33078139503004</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.03595981372203</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U16" t="n">
         <v>277.3346473620106</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>225.7966769512796</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>120.5814213255767</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>190.2712724825276</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>61.03163095145347</v>
+        <v>61.03163095145346</v>
       </c>
       <c r="T18" t="n">
         <v>136.2340891864179</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>55.04813723046807</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.035959813722023</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S19" t="n">
         <v>153.1115464721751</v>
       </c>
       <c r="T19" t="n">
-        <v>237.149349835783</v>
+        <v>149.4394363913589</v>
       </c>
       <c r="U19" t="n">
         <v>277.3346473620106</v>
@@ -2064,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>353.8055876770763</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1362515435019</v>
+        <v>136.8737814713544</v>
       </c>
       <c r="U20" t="n">
         <v>255.6145573178477</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2250,16 +2250,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>7.035959813722016</v>
       </c>
       <c r="S22" t="n">
-        <v>153.1115464721751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3346473620106</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>162.6058932310058</v>
+        <v>65.39159226742785</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>353.8055876770763</v>
+        <v>363.8680451095988</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>210.1362515435019</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>92.06452160295639</v>
       </c>
       <c r="H24" t="n">
-        <v>42.71397774181507</v>
+        <v>42.71397774181506</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>53.12622867222698</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>7.035959813722016</v>
       </c>
       <c r="S25" t="n">
-        <v>153.1115464721751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.149349835783</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>162.9711360333607</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>91.34964812696346</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>63.94488025214495</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>58.65926901736314</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>73.54284783164319</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>7.035959813722016</v>
       </c>
       <c r="S28" t="n">
-        <v>153.1115464721751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.149349835783</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>76.81376789316425</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>135.1149987770151</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.335634390144</v>
+        <v>337.459355622274</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U29" t="n">
         <v>255.6145573178477</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>91.83633167536617</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.035959813722016</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>153.1115464721751</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U31" t="n">
         <v>277.3346473620106</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>168.8037037141274</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>275.011005855058</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>316.4986684899528</v>
       </c>
       <c r="H32" t="n">
         <v>274.8164617558294</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>161.8314327808335</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.221634093186268</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>153.1115464721751</v>
       </c>
       <c r="T34" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3346473620106</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.335634390144</v>
+        <v>334.049541664039</v>
       </c>
       <c r="H35" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U35" t="n">
-        <v>187.2877721476243</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>40.14610373983761</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S37" t="n">
-        <v>153.1115464721751</v>
+        <v>35.98493765452932</v>
       </c>
       <c r="T37" t="n">
         <v>237.149349835783</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3346473620106</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>362.6620488190783</v>
+        <v>378.0831800717678</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3669,7 +3669,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>31.13888082359544</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.035959813722016</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.1115464721751</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>175.3096373179217</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3346473620106</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3745,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>298.0760857122304</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.65926901736312</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T41" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>105.71563143092</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>92.06452160295639</v>
       </c>
       <c r="H42" t="n">
-        <v>42.71397774181506</v>
+        <v>42.71397774181507</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>61.03163095145345</v>
+        <v>61.03163095145346</v>
       </c>
       <c r="T42" t="n">
         <v>136.2340891864179</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.8201995702905</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3918,7 +3918,7 @@
         <v>134.5413714187498</v>
       </c>
       <c r="I43" t="n">
-        <v>72.33078139503002</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>277.3346473620106</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>168.7743502357775</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>321.0749423183004</v>
       </c>
       <c r="G44" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.65926901736312</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T44" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5646030832261</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>92.06452160295639</v>
       </c>
       <c r="H45" t="n">
-        <v>42.71397774181506</v>
+        <v>42.71397774181507</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>61.03163095145345</v>
+        <v>61.03163095145346</v>
       </c>
       <c r="T45" t="n">
         <v>136.2340891864179</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>145.7639482199853</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.33078139503002</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.035959813722009</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S46" t="n">
-        <v>153.1115464721751</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.149349835783</v>
       </c>
       <c r="U46" t="n">
-        <v>163.3658254182257</v>
+        <v>277.3346473620106</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>679.910075903661</v>
+        <v>1786.259052423092</v>
       </c>
       <c r="C11" t="n">
-        <v>679.910075903661</v>
+        <v>1786.259052423092</v>
       </c>
       <c r="D11" t="n">
-        <v>679.910075903661</v>
+        <v>1362.966431608093</v>
       </c>
       <c r="E11" t="n">
-        <v>444.4333738937631</v>
+        <v>936.9894917559503</v>
       </c>
       <c r="F11" t="n">
-        <v>444.4333738937631</v>
+        <v>511.8653099453505</v>
       </c>
       <c r="G11" t="n">
-        <v>42.07414723705196</v>
+        <v>109.5060832886393</v>
       </c>
       <c r="H11" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I11" t="n">
-        <v>82.68042202224456</v>
+        <v>82.68042202224524</v>
       </c>
       <c r="J11" t="n">
-        <v>218.246828856242</v>
+        <v>218.2468288562432</v>
       </c>
       <c r="K11" t="n">
-        <v>429.6707399497108</v>
+        <v>429.6707399497118</v>
       </c>
       <c r="L11" t="n">
-        <v>697.9573333441454</v>
+        <v>697.9573333441463</v>
       </c>
       <c r="M11" t="n">
-        <v>1001.624145372457</v>
+        <v>1001.624145372458</v>
       </c>
       <c r="N11" t="n">
         <v>1310.954347754825</v>
@@ -5059,34 +5059,34 @@
         <v>1600.879106339949</v>
       </c>
       <c r="P11" t="n">
-        <v>1842.716767506418</v>
+        <v>1842.716767506419</v>
       </c>
       <c r="Q11" t="n">
-        <v>2016.498708143956</v>
+        <v>2016.498708143957</v>
       </c>
       <c r="R11" t="n">
         <v>2103.707361852598</v>
       </c>
       <c r="S11" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="T11" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.510839309317</v>
+        <v>1786.259052423092</v>
       </c>
       <c r="V11" t="n">
-        <v>1488.021424435567</v>
+        <v>1786.259052423092</v>
       </c>
       <c r="W11" t="n">
-        <v>1091.630074735914</v>
+        <v>1786.259052423092</v>
       </c>
       <c r="X11" t="n">
-        <v>679.910075903661</v>
+        <v>1786.259052423092</v>
       </c>
       <c r="Y11" t="n">
-        <v>679.910075903661</v>
+        <v>1786.259052423092</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>178.214045565104</v>
       </c>
       <c r="G12" t="n">
-        <v>85.21957929949143</v>
+        <v>85.21957929949144</v>
       </c>
       <c r="H12" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I12" t="n">
-        <v>61.80940056264828</v>
+        <v>85.26670640706013</v>
       </c>
       <c r="J12" t="n">
-        <v>139.4939236196041</v>
+        <v>320.4797658479855</v>
       </c>
       <c r="K12" t="n">
-        <v>284.9693059505253</v>
+        <v>465.9551481789068</v>
       </c>
       <c r="L12" t="n">
-        <v>502.7756021307138</v>
+        <v>669.0921654377823</v>
       </c>
       <c r="M12" t="n">
-        <v>742.9724109957032</v>
+        <v>909.2889743027717</v>
       </c>
       <c r="N12" t="n">
-        <v>1263.639983054221</v>
+        <v>1158.184482769315</v>
       </c>
       <c r="O12" t="n">
-        <v>1487.720030896814</v>
+        <v>1382.264530611908</v>
       </c>
       <c r="P12" t="n">
-        <v>1664.422401271944</v>
+        <v>1558.966900987038</v>
       </c>
       <c r="Q12" t="n">
-        <v>1774.431386909859</v>
+        <v>1668.975886624954</v>
       </c>
       <c r="R12" t="n">
         <v>1815.456240001607</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.764117367796</v>
+        <v>1005.752661715436</v>
       </c>
       <c r="C13" t="n">
-        <v>917.7915542467122</v>
+        <v>833.7800985943516</v>
       </c>
       <c r="D13" t="n">
-        <v>754.4747813734829</v>
+        <v>670.4633257211223</v>
       </c>
       <c r="E13" t="n">
-        <v>588.2665755263364</v>
+        <v>504.2551198739758</v>
       </c>
       <c r="F13" t="n">
-        <v>416.4048013008968</v>
+        <v>332.3933456485362</v>
       </c>
       <c r="G13" t="n">
         <v>251.0359177560215</v>
@@ -5196,55 +5196,55 @@
         <v>115.1355425855672</v>
       </c>
       <c r="I13" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="J13" t="n">
-        <v>83.18197532575655</v>
+        <v>161.1036919739774</v>
       </c>
       <c r="K13" t="n">
-        <v>163.5531609411885</v>
+        <v>488.7574867034314</v>
       </c>
       <c r="L13" t="n">
-        <v>396.1700439321718</v>
+        <v>596.464625587065</v>
       </c>
       <c r="M13" t="n">
-        <v>916.8376159906898</v>
+        <v>1117.132197645583</v>
       </c>
       <c r="N13" t="n">
-        <v>1029.493169250436</v>
+        <v>1627.820673747209</v>
       </c>
       <c r="O13" t="n">
-        <v>1507.950253869572</v>
+        <v>1728.575434063143</v>
       </c>
       <c r="P13" t="n">
-        <v>1903.821991506512</v>
+        <v>1903.821991506513</v>
       </c>
       <c r="Q13" t="n">
         <v>2103.707361852598</v>
       </c>
       <c r="R13" t="n">
-        <v>2096.600331737727</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="S13" t="n">
-        <v>1941.942203988055</v>
+        <v>1941.942203988056</v>
       </c>
       <c r="T13" t="n">
         <v>1702.397406174133</v>
       </c>
       <c r="U13" t="n">
-        <v>1702.397406174133</v>
+        <v>1422.261398737759</v>
       </c>
       <c r="V13" t="n">
-        <v>1420.685938782162</v>
+        <v>1422.261398737759</v>
       </c>
       <c r="W13" t="n">
-        <v>1332.328013921991</v>
+        <v>1422.261398737759</v>
       </c>
       <c r="X13" t="n">
-        <v>1089.764117367796</v>
+        <v>1422.261398737759</v>
       </c>
       <c r="Y13" t="n">
-        <v>1089.764117367796</v>
+        <v>1195.918630427501</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>745.6434727011433</v>
+        <v>1574.903429344554</v>
       </c>
       <c r="C14" t="n">
-        <v>745.6434727011433</v>
+        <v>1148.002699357854</v>
       </c>
       <c r="D14" t="n">
-        <v>745.6434727011433</v>
+        <v>1148.002699357854</v>
       </c>
       <c r="E14" t="n">
-        <v>319.6665328490009</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="F14" t="n">
-        <v>319.6665328490009</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="G14" t="n">
         <v>319.6665328490009</v>
       </c>
       <c r="H14" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I14" t="n">
-        <v>82.6804220222449</v>
+        <v>82.68042202224478</v>
       </c>
       <c r="J14" t="n">
-        <v>218.2468288562426</v>
+        <v>218.2468288562425</v>
       </c>
       <c r="K14" t="n">
-        <v>429.6707399497113</v>
+        <v>429.6707399497114</v>
       </c>
       <c r="L14" t="n">
-        <v>697.9573333441459</v>
+        <v>697.957333344146</v>
       </c>
       <c r="M14" t="n">
-        <v>1001.624145372457</v>
+        <v>1001.624145372458</v>
       </c>
       <c r="N14" t="n">
         <v>1310.954347754825</v>
@@ -5296,34 +5296,34 @@
         <v>1600.879106339949</v>
       </c>
       <c r="P14" t="n">
-        <v>1842.716767506418</v>
+        <v>1842.716767506419</v>
       </c>
       <c r="Q14" t="n">
-        <v>2016.498708143956</v>
+        <v>2016.498708143957</v>
       </c>
       <c r="R14" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S14" t="n">
-        <v>2103.707361852597</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="T14" t="n">
-        <v>1891.448521909666</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="U14" t="n">
-        <v>1891.448521909666</v>
+        <v>1786.259052423092</v>
       </c>
       <c r="V14" t="n">
-        <v>1562.700741578506</v>
+        <v>1786.259052423092</v>
       </c>
       <c r="W14" t="n">
-        <v>1562.700741578506</v>
+        <v>1574.903429344554</v>
       </c>
       <c r="X14" t="n">
-        <v>1150.980742746253</v>
+        <v>1574.903429344554</v>
       </c>
       <c r="Y14" t="n">
-        <v>745.6434727011433</v>
+        <v>1574.903429344554</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F15" t="n">
-        <v>178.2140455651039</v>
+        <v>178.214045565104</v>
       </c>
       <c r="G15" t="n">
-        <v>85.21957929949141</v>
+        <v>85.21957929949144</v>
       </c>
       <c r="H15" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I15" t="n">
-        <v>61.80940056264826</v>
+        <v>61.80940056264829</v>
       </c>
       <c r="J15" t="n">
-        <v>139.493923619604</v>
+        <v>425.9352661328912</v>
       </c>
       <c r="K15" t="n">
-        <v>284.9693059505253</v>
+        <v>571.4106484638125</v>
       </c>
       <c r="L15" t="n">
-        <v>488.1063232094008</v>
+        <v>774.5476657226882</v>
       </c>
       <c r="M15" t="n">
-        <v>728.3031320743902</v>
+        <v>1014.744474587678</v>
       </c>
       <c r="N15" t="n">
-        <v>977.1986405409334</v>
+        <v>1263.639983054221</v>
       </c>
       <c r="O15" t="n">
-        <v>1201.278688383526</v>
+        <v>1487.720030896813</v>
       </c>
       <c r="P15" t="n">
-        <v>1377.981058758656</v>
+        <v>1664.422401271943</v>
       </c>
       <c r="Q15" t="n">
-        <v>1668.975886624954</v>
+        <v>1774.431386909859</v>
       </c>
       <c r="R15" t="n">
         <v>1815.456240001607</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8911790762577</v>
+        <v>450.4248785798804</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8911790762577</v>
+        <v>278.4523154587964</v>
       </c>
       <c r="D16" t="n">
-        <v>618.5744062030284</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="E16" t="n">
-        <v>452.3662003558819</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="F16" t="n">
-        <v>280.5044261304424</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="G16" t="n">
         <v>115.1355425855672</v>
@@ -5433,55 +5433,55 @@
         <v>115.1355425855672</v>
       </c>
       <c r="I16" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="J16" t="n">
-        <v>161.1036919739774</v>
+        <v>83.18197532575658</v>
       </c>
       <c r="K16" t="n">
-        <v>241.4748775894093</v>
+        <v>410.8357700552106</v>
       </c>
       <c r="L16" t="n">
-        <v>396.1700439321714</v>
+        <v>894.9318025300092</v>
       </c>
       <c r="M16" t="n">
-        <v>916.8376159906893</v>
+        <v>1047.880514829912</v>
       </c>
       <c r="N16" t="n">
-        <v>1029.493169250435</v>
+        <v>1558.568990931539</v>
       </c>
       <c r="O16" t="n">
-        <v>1507.950253869572</v>
+        <v>1659.323751247472</v>
       </c>
       <c r="P16" t="n">
-        <v>1903.821991506512</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q16" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="R16" t="n">
-        <v>2096.600331737727</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="S16" t="n">
-        <v>2096.600331737727</v>
+        <v>1941.942203988056</v>
       </c>
       <c r="T16" t="n">
-        <v>2096.600331737727</v>
+        <v>1702.397406174133</v>
       </c>
       <c r="U16" t="n">
-        <v>1816.464324301352</v>
+        <v>1422.261398737759</v>
       </c>
       <c r="V16" t="n">
-        <v>1534.752856909381</v>
+        <v>1194.18394727182</v>
       </c>
       <c r="W16" t="n">
-        <v>1259.900453081894</v>
+        <v>919.3315434443333</v>
       </c>
       <c r="X16" t="n">
-        <v>1017.336556527699</v>
+        <v>676.7676468901384</v>
       </c>
       <c r="Y16" t="n">
-        <v>790.9937882174414</v>
+        <v>450.4248785798804</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>890.4909498626515</v>
+        <v>1267.117795801092</v>
       </c>
       <c r="C17" t="n">
-        <v>890.4909498626515</v>
+        <v>1267.117795801092</v>
       </c>
       <c r="D17" t="n">
-        <v>467.1983290476518</v>
+        <v>843.8251749860926</v>
       </c>
       <c r="E17" t="n">
-        <v>467.1983290476518</v>
+        <v>843.8251749860926</v>
       </c>
       <c r="F17" t="n">
-        <v>42.07414723705196</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="G17" t="n">
-        <v>42.07414723705196</v>
+        <v>319.6665328490009</v>
       </c>
       <c r="H17" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I17" t="n">
-        <v>82.68042202224498</v>
+        <v>82.68042202224456</v>
       </c>
       <c r="J17" t="n">
-        <v>218.2468288562427</v>
+        <v>218.2468288562425</v>
       </c>
       <c r="K17" t="n">
-        <v>429.6707399497115</v>
+        <v>429.6707399497114</v>
       </c>
       <c r="L17" t="n">
-        <v>697.9573333441462</v>
+        <v>697.957333344146</v>
       </c>
       <c r="M17" t="n">
         <v>1001.624145372458</v>
@@ -5533,34 +5533,34 @@
         <v>1600.879106339949</v>
       </c>
       <c r="P17" t="n">
-        <v>1842.716767506418</v>
+        <v>1842.716767506419</v>
       </c>
       <c r="Q17" t="n">
-        <v>2016.498708143956</v>
+        <v>2016.498708143957</v>
       </c>
       <c r="R17" t="n">
         <v>2103.707361852598</v>
       </c>
       <c r="S17" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="T17" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.510839309317</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="V17" t="n">
-        <v>1488.021424435567</v>
+        <v>1686.966160092622</v>
       </c>
       <c r="W17" t="n">
-        <v>1295.828219907761</v>
+        <v>1686.966160092622</v>
       </c>
       <c r="X17" t="n">
-        <v>1295.828219907761</v>
+        <v>1686.966160092622</v>
       </c>
       <c r="Y17" t="n">
-        <v>890.4909498626515</v>
+        <v>1686.966160092622</v>
       </c>
     </row>
     <row r="18">
@@ -5585,22 +5585,22 @@
         <v>178.214045565104</v>
       </c>
       <c r="G18" t="n">
-        <v>85.21957929949143</v>
+        <v>85.21957929949144</v>
       </c>
       <c r="H18" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I18" t="n">
-        <v>85.26670640706013</v>
+        <v>61.80940056264829</v>
       </c>
       <c r="J18" t="n">
-        <v>425.9352661328915</v>
+        <v>425.9352661328912</v>
       </c>
       <c r="K18" t="n">
-        <v>571.4106484638128</v>
+        <v>571.4106484638125</v>
       </c>
       <c r="L18" t="n">
-        <v>774.5476657226884</v>
+        <v>774.5476657226882</v>
       </c>
       <c r="M18" t="n">
         <v>1014.744474587678</v>
@@ -5609,10 +5609,10 @@
         <v>1263.639983054221</v>
       </c>
       <c r="O18" t="n">
-        <v>1487.720030896814</v>
+        <v>1487.720030896813</v>
       </c>
       <c r="P18" t="n">
-        <v>1664.422401271944</v>
+        <v>1664.422401271943</v>
       </c>
       <c r="Q18" t="n">
         <v>1774.431386909859</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>432.96766225204</v>
+        <v>760.2391386474203</v>
       </c>
       <c r="C19" t="n">
-        <v>260.9950991309561</v>
+        <v>588.2665755263363</v>
       </c>
       <c r="D19" t="n">
-        <v>97.67832625772678</v>
+        <v>588.2665755263363</v>
       </c>
       <c r="E19" t="n">
-        <v>97.67832625772678</v>
+        <v>588.2665755263363</v>
       </c>
       <c r="F19" t="n">
-        <v>42.07414723705196</v>
+        <v>416.4048013008967</v>
       </c>
       <c r="G19" t="n">
-        <v>42.07414723705196</v>
+        <v>251.0359177560215</v>
       </c>
       <c r="H19" t="n">
-        <v>42.07414723705196</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="I19" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="J19" t="n">
-        <v>83.18197532575655</v>
+        <v>83.18197532575658</v>
       </c>
       <c r="K19" t="n">
-        <v>410.8357700552104</v>
+        <v>410.8357700552106</v>
       </c>
       <c r="L19" t="n">
-        <v>894.9318025300091</v>
+        <v>894.9318025300092</v>
       </c>
       <c r="M19" t="n">
-        <v>1415.599374588527</v>
+        <v>1009.023349817385</v>
       </c>
       <c r="N19" t="n">
-        <v>1528.254927848273</v>
+        <v>1121.678903077131</v>
       </c>
       <c r="O19" t="n">
-        <v>1659.323751247472</v>
+        <v>1600.135987696268</v>
       </c>
       <c r="P19" t="n">
-        <v>2055.195488884412</v>
+        <v>1996.007725333208</v>
       </c>
       <c r="Q19" t="n">
         <v>2103.707361852598</v>
       </c>
       <c r="R19" t="n">
-        <v>2096.600331737727</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="S19" t="n">
-        <v>1941.942203988055</v>
+        <v>1941.942203988056</v>
       </c>
       <c r="T19" t="n">
-        <v>1702.397406174133</v>
+        <v>1790.993278340218</v>
       </c>
       <c r="U19" t="n">
-        <v>1422.261398737759</v>
+        <v>1510.857270903844</v>
       </c>
       <c r="V19" t="n">
-        <v>1140.549931345788</v>
+        <v>1229.145803511873</v>
       </c>
       <c r="W19" t="n">
-        <v>865.6975275183006</v>
+        <v>1229.145803511873</v>
       </c>
       <c r="X19" t="n">
-        <v>623.1336309641057</v>
+        <v>986.5819069576783</v>
       </c>
       <c r="Y19" t="n">
-        <v>623.1336309641057</v>
+        <v>760.2391386474203</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>399.4535287290483</v>
+        <v>1295.534495556506</v>
       </c>
       <c r="C20" t="n">
-        <v>399.4535287290483</v>
+        <v>1295.534495556506</v>
       </c>
       <c r="D20" t="n">
-        <v>399.4535287290483</v>
+        <v>1295.534495556506</v>
       </c>
       <c r="E20" t="n">
-        <v>399.4535287290483</v>
+        <v>869.557555704363</v>
       </c>
       <c r="F20" t="n">
-        <v>42.07414723705197</v>
+        <v>444.4333738937632</v>
       </c>
       <c r="G20" t="n">
         <v>42.07414723705197</v>
@@ -5749,16 +5749,16 @@
         <v>42.07414723705197</v>
       </c>
       <c r="I20" t="n">
-        <v>82.68042202224478</v>
+        <v>82.68042202224456</v>
       </c>
       <c r="J20" t="n">
-        <v>218.2468288562427</v>
+        <v>218.2468288562425</v>
       </c>
       <c r="K20" t="n">
-        <v>429.6707399497116</v>
+        <v>429.6707399497114</v>
       </c>
       <c r="L20" t="n">
-        <v>697.9573333441463</v>
+        <v>697.957333344146</v>
       </c>
       <c r="M20" t="n">
         <v>1001.624145372458</v>
@@ -5776,28 +5776,28 @@
         <v>2016.498708143957</v>
       </c>
       <c r="R20" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852599</v>
       </c>
       <c r="S20" t="n">
-        <v>2044.455574966373</v>
+        <v>2103.707361852599</v>
       </c>
       <c r="T20" t="n">
-        <v>1832.196735023442</v>
+        <v>1965.451016932039</v>
       </c>
       <c r="U20" t="n">
-        <v>1574.000212480161</v>
+        <v>1707.254494388758</v>
       </c>
       <c r="V20" t="n">
-        <v>1216.510797606411</v>
+        <v>1707.254494388758</v>
       </c>
       <c r="W20" t="n">
-        <v>1216.510797606411</v>
+        <v>1707.254494388758</v>
       </c>
       <c r="X20" t="n">
-        <v>804.790798774158</v>
+        <v>1295.534495556506</v>
       </c>
       <c r="Y20" t="n">
-        <v>399.4535287290483</v>
+        <v>1295.534495556506</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>42.07414723705197</v>
       </c>
       <c r="I21" t="n">
-        <v>61.80940056264829</v>
+        <v>61.8094005626483</v>
       </c>
       <c r="J21" t="n">
-        <v>139.4939236196041</v>
+        <v>425.9352661328912</v>
       </c>
       <c r="K21" t="n">
-        <v>284.9693059505254</v>
+        <v>571.4106484638125</v>
       </c>
       <c r="L21" t="n">
-        <v>488.106323209401</v>
+        <v>774.5476657226882</v>
       </c>
       <c r="M21" t="n">
-        <v>728.3031320743905</v>
+        <v>1014.744474587678</v>
       </c>
       <c r="N21" t="n">
-        <v>1248.970704132909</v>
+        <v>1263.639983054221</v>
       </c>
       <c r="O21" t="n">
-        <v>1473.050751975501</v>
+        <v>1487.720030896813</v>
       </c>
       <c r="P21" t="n">
         <v>1664.422401271943</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>543.5716890785117</v>
+        <v>1089.764117367796</v>
       </c>
       <c r="C22" t="n">
-        <v>371.5991259574277</v>
+        <v>917.7915542467122</v>
       </c>
       <c r="D22" t="n">
-        <v>208.2823530841984</v>
+        <v>754.4747813734829</v>
       </c>
       <c r="E22" t="n">
-        <v>42.07414723705197</v>
+        <v>588.2665755263364</v>
       </c>
       <c r="F22" t="n">
-        <v>42.07414723705197</v>
+        <v>416.4048013008968</v>
       </c>
       <c r="G22" t="n">
-        <v>42.07414723705197</v>
+        <v>251.0359177560215</v>
       </c>
       <c r="H22" t="n">
-        <v>42.07414723705197</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="I22" t="n">
         <v>42.07414723705197</v>
       </c>
       <c r="J22" t="n">
-        <v>161.1036919739774</v>
+        <v>83.18197532575658</v>
       </c>
       <c r="K22" t="n">
-        <v>241.4748775894094</v>
+        <v>163.5531609411885</v>
       </c>
       <c r="L22" t="n">
-        <v>725.5709100642081</v>
+        <v>462.2668230414994</v>
       </c>
       <c r="M22" t="n">
-        <v>839.6624573515843</v>
+        <v>982.9343951000176</v>
       </c>
       <c r="N22" t="n">
-        <v>1350.35093345321</v>
+        <v>1493.622871201644</v>
       </c>
       <c r="O22" t="n">
-        <v>1507.950253869573</v>
+        <v>1972.07995582078</v>
       </c>
       <c r="P22" t="n">
-        <v>1903.821991506513</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q22" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852599</v>
       </c>
       <c r="R22" t="n">
         <v>2096.600331737728</v>
       </c>
       <c r="S22" t="n">
-        <v>1941.942203988056</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="T22" t="n">
-        <v>1702.397406174133</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="U22" t="n">
-        <v>1422.261398737759</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="V22" t="n">
-        <v>1140.549931345788</v>
+        <v>1814.888864345757</v>
       </c>
       <c r="W22" t="n">
-        <v>976.3015543447722</v>
+        <v>1748.836750944315</v>
       </c>
       <c r="X22" t="n">
-        <v>733.7376577905773</v>
+        <v>1506.27285439012</v>
       </c>
       <c r="Y22" t="n">
-        <v>733.7376577905773</v>
+        <v>1279.930086079862</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>399.4535287290483</v>
+        <v>1114.110742744386</v>
       </c>
       <c r="C23" t="n">
-        <v>399.4535287290483</v>
+        <v>687.2100127576866</v>
       </c>
       <c r="D23" t="n">
-        <v>399.4535287290483</v>
+        <v>687.2100127576866</v>
       </c>
       <c r="E23" t="n">
-        <v>399.4535287290483</v>
+        <v>687.2100127576866</v>
       </c>
       <c r="F23" t="n">
-        <v>42.07414723705197</v>
+        <v>319.6665328490009</v>
       </c>
       <c r="G23" t="n">
-        <v>42.07414723705197</v>
+        <v>319.6665328490009</v>
       </c>
       <c r="H23" t="n">
         <v>42.07414723705197</v>
       </c>
       <c r="I23" t="n">
-        <v>82.68042202224501</v>
+        <v>82.68042202224478</v>
       </c>
       <c r="J23" t="n">
-        <v>218.2468288562428</v>
+        <v>218.2468288562422</v>
       </c>
       <c r="K23" t="n">
-        <v>429.6707399497116</v>
+        <v>429.6707399497111</v>
       </c>
       <c r="L23" t="n">
-        <v>697.9573333441462</v>
+        <v>697.9573333441458</v>
       </c>
       <c r="M23" t="n">
         <v>1001.624145372458</v>
@@ -6016,25 +6016,25 @@
         <v>2103.707361852598</v>
       </c>
       <c r="S23" t="n">
-        <v>2044.455574966373</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="T23" t="n">
-        <v>1832.196735023442</v>
+        <v>1891.448521909667</v>
       </c>
       <c r="U23" t="n">
-        <v>1574.000212480161</v>
+        <v>1891.448521909667</v>
       </c>
       <c r="V23" t="n">
-        <v>1216.510797606411</v>
+        <v>1533.959107035917</v>
       </c>
       <c r="W23" t="n">
-        <v>1216.510797606411</v>
+        <v>1533.959107035917</v>
       </c>
       <c r="X23" t="n">
-        <v>804.790798774158</v>
+        <v>1533.959107035917</v>
       </c>
       <c r="Y23" t="n">
-        <v>399.4535287290483</v>
+        <v>1533.959107035917</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>178.214045565104</v>
       </c>
       <c r="G24" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949143</v>
       </c>
       <c r="H24" t="n">
         <v>42.07414723705197</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>432.9676622520405</v>
+        <v>423.0084808771055</v>
       </c>
       <c r="C25" t="n">
-        <v>432.9676622520405</v>
+        <v>251.0359177560215</v>
       </c>
       <c r="D25" t="n">
-        <v>379.3048050073668</v>
+        <v>251.0359177560215</v>
       </c>
       <c r="E25" t="n">
-        <v>379.3048050073668</v>
+        <v>251.0359177560215</v>
       </c>
       <c r="F25" t="n">
-        <v>207.4430307819272</v>
+        <v>251.0359177560215</v>
       </c>
       <c r="G25" t="n">
-        <v>42.07414723705197</v>
+        <v>251.0359177560215</v>
       </c>
       <c r="H25" t="n">
-        <v>42.07414723705197</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="I25" t="n">
         <v>42.07414723705197</v>
@@ -6153,19 +6153,19 @@
         <v>241.4748775894094</v>
       </c>
       <c r="L25" t="n">
-        <v>404.7131458614338</v>
+        <v>349.1820164730431</v>
       </c>
       <c r="M25" t="n">
-        <v>518.80469314881</v>
+        <v>670.1781905267092</v>
       </c>
       <c r="N25" t="n">
-        <v>1029.493169250436</v>
+        <v>1180.866666628335</v>
       </c>
       <c r="O25" t="n">
-        <v>1507.950253869573</v>
+        <v>1659.323751247472</v>
       </c>
       <c r="P25" t="n">
-        <v>1903.821991506513</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q25" t="n">
         <v>2103.707361852598</v>
@@ -6174,25 +6174,25 @@
         <v>2096.600331737728</v>
       </c>
       <c r="S25" t="n">
-        <v>1941.942203988056</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="T25" t="n">
-        <v>1702.397406174133</v>
+        <v>1857.055533923805</v>
       </c>
       <c r="U25" t="n">
-        <v>1422.261398737759</v>
+        <v>1576.919526487431</v>
       </c>
       <c r="V25" t="n">
-        <v>1140.549931345788</v>
+        <v>1295.20805909546</v>
       </c>
       <c r="W25" t="n">
-        <v>865.6975275183011</v>
+        <v>1020.355655267973</v>
       </c>
       <c r="X25" t="n">
-        <v>623.1336309641061</v>
+        <v>777.791758713778</v>
       </c>
       <c r="Y25" t="n">
-        <v>623.1336309641061</v>
+        <v>613.1744495891712</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>807.5499417974804</v>
+        <v>1412.348370731912</v>
       </c>
       <c r="C26" t="n">
-        <v>807.5499417974804</v>
+        <v>985.4476407452119</v>
       </c>
       <c r="D26" t="n">
-        <v>384.2573209824807</v>
+        <v>893.1752688997942</v>
       </c>
       <c r="E26" t="n">
-        <v>384.2573209824807</v>
+        <v>467.1983290476518</v>
       </c>
       <c r="F26" t="n">
-        <v>384.2573209824807</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="G26" t="n">
-        <v>319.6665328490009</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="H26" t="n">
         <v>42.07414723705197</v>
       </c>
       <c r="I26" t="n">
-        <v>82.68042202224478</v>
+        <v>82.68042202224498</v>
       </c>
       <c r="J26" t="n">
         <v>218.2468288562427</v>
       </c>
       <c r="K26" t="n">
-        <v>429.6707399497116</v>
+        <v>429.6707399497115</v>
       </c>
       <c r="L26" t="n">
-        <v>697.9573333441463</v>
+        <v>697.9573333441462</v>
       </c>
       <c r="M26" t="n">
         <v>1001.624145372458</v>
@@ -6256,22 +6256,22 @@
         <v>2044.455574966373</v>
       </c>
       <c r="T26" t="n">
-        <v>2044.455574966373</v>
+        <v>1832.196735023442</v>
       </c>
       <c r="U26" t="n">
-        <v>2044.455574966373</v>
+        <v>1832.196735023442</v>
       </c>
       <c r="V26" t="n">
-        <v>2044.455574966373</v>
+        <v>1832.196735023442</v>
       </c>
       <c r="W26" t="n">
-        <v>2044.455574966373</v>
+        <v>1832.196735023442</v>
       </c>
       <c r="X26" t="n">
-        <v>1632.73557613412</v>
+        <v>1832.196735023442</v>
       </c>
       <c r="Y26" t="n">
-        <v>1227.39830608901</v>
+        <v>1832.196735023442</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>61.80940056264829</v>
       </c>
       <c r="J27" t="n">
-        <v>139.4939236196041</v>
+        <v>320.4797658479854</v>
       </c>
       <c r="K27" t="n">
-        <v>284.9693059505254</v>
+        <v>465.9551481789067</v>
       </c>
       <c r="L27" t="n">
-        <v>488.106323209401</v>
+        <v>669.0921654377823</v>
       </c>
       <c r="M27" t="n">
-        <v>728.3031320743905</v>
+        <v>909.2889743027717</v>
       </c>
       <c r="N27" t="n">
-        <v>977.1986405409339</v>
+        <v>1158.184482769315</v>
       </c>
       <c r="O27" t="n">
-        <v>1201.278688383526</v>
+        <v>1382.264530611908</v>
       </c>
       <c r="P27" t="n">
         <v>1558.966900987038</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>371.5991259574277</v>
+        <v>361.2830216914544</v>
       </c>
       <c r="C28" t="n">
-        <v>371.5991259574277</v>
+        <v>361.2830216914544</v>
       </c>
       <c r="D28" t="n">
-        <v>208.2823530841984</v>
+        <v>286.9973168110067</v>
       </c>
       <c r="E28" t="n">
-        <v>42.07414723705197</v>
+        <v>286.9973168110067</v>
       </c>
       <c r="F28" t="n">
-        <v>42.07414723705197</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="G28" t="n">
-        <v>42.07414723705197</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="H28" t="n">
-        <v>42.07414723705197</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="I28" t="n">
         <v>42.07414723705197</v>
       </c>
       <c r="J28" t="n">
-        <v>161.1036919739774</v>
+        <v>83.18197532575658</v>
       </c>
       <c r="K28" t="n">
-        <v>241.4748775894094</v>
+        <v>163.5531609411885</v>
       </c>
       <c r="L28" t="n">
-        <v>349.1820164730431</v>
+        <v>271.2602998248223</v>
       </c>
       <c r="M28" t="n">
-        <v>869.8495885315613</v>
+        <v>791.9278718833403</v>
       </c>
       <c r="N28" t="n">
-        <v>1380.538064633187</v>
+        <v>1180.866666628335</v>
       </c>
       <c r="O28" t="n">
-        <v>1507.950253869573</v>
+        <v>1659.323751247472</v>
       </c>
       <c r="P28" t="n">
-        <v>1903.821991506513</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q28" t="n">
         <v>2103.707361852598</v>
@@ -6411,25 +6411,25 @@
         <v>2096.600331737728</v>
       </c>
       <c r="S28" t="n">
-        <v>1941.942203988056</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="T28" t="n">
-        <v>1702.397406174133</v>
+        <v>1857.055533923805</v>
       </c>
       <c r="U28" t="n">
-        <v>1422.261398737759</v>
+        <v>1576.919526487431</v>
       </c>
       <c r="V28" t="n">
-        <v>1140.549931345788</v>
+        <v>1295.20805909546</v>
       </c>
       <c r="W28" t="n">
-        <v>865.6975275183011</v>
+        <v>1020.355655267973</v>
       </c>
       <c r="X28" t="n">
-        <v>788.1078629797513</v>
+        <v>777.791758713778</v>
       </c>
       <c r="Y28" t="n">
-        <v>561.7650946694934</v>
+        <v>551.44899040352</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1297.311043732605</v>
+        <v>808.0663650297467</v>
       </c>
       <c r="C29" t="n">
-        <v>870.4103137459056</v>
+        <v>808.0663650297467</v>
       </c>
       <c r="D29" t="n">
-        <v>870.4103137459056</v>
+        <v>808.0663650297467</v>
       </c>
       <c r="E29" t="n">
-        <v>444.4333738937632</v>
+        <v>808.0663650297467</v>
       </c>
       <c r="F29" t="n">
-        <v>444.4333738937632</v>
+        <v>382.942183219147</v>
       </c>
       <c r="G29" t="n">
         <v>42.07414723705197</v>
@@ -6460,13 +6460,13 @@
         <v>42.07414723705197</v>
       </c>
       <c r="I29" t="n">
-        <v>82.68042202224498</v>
+        <v>82.68042202224501</v>
       </c>
       <c r="J29" t="n">
-        <v>218.2468288562427</v>
+        <v>218.2468288562428</v>
       </c>
       <c r="K29" t="n">
-        <v>429.6707399497115</v>
+        <v>429.6707399497116</v>
       </c>
       <c r="L29" t="n">
         <v>697.9573333441462</v>
@@ -6493,22 +6493,22 @@
         <v>2103.707361852598</v>
       </c>
       <c r="T29" t="n">
-        <v>2103.707361852598</v>
+        <v>1891.448521909667</v>
       </c>
       <c r="U29" t="n">
-        <v>1845.510839309318</v>
+        <v>1633.251999366387</v>
       </c>
       <c r="V29" t="n">
-        <v>1845.510839309318</v>
+        <v>1633.251999366387</v>
       </c>
       <c r="W29" t="n">
-        <v>1845.510839309318</v>
+        <v>1633.251999366387</v>
       </c>
       <c r="X29" t="n">
-        <v>1433.790840477065</v>
+        <v>1633.251999366387</v>
       </c>
       <c r="Y29" t="n">
-        <v>1433.790840477065</v>
+        <v>1227.914729321277</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>61.80940056264829</v>
       </c>
       <c r="J30" t="n">
-        <v>139.4939236196041</v>
+        <v>320.4797658479854</v>
       </c>
       <c r="K30" t="n">
-        <v>284.9693059505254</v>
+        <v>465.9551481789067</v>
       </c>
       <c r="L30" t="n">
-        <v>488.106323209401</v>
+        <v>669.0921654377823</v>
       </c>
       <c r="M30" t="n">
-        <v>728.3031320743905</v>
+        <v>909.2889743027717</v>
       </c>
       <c r="N30" t="n">
-        <v>977.1986405409339</v>
+        <v>1158.184482769315</v>
       </c>
       <c r="O30" t="n">
-        <v>1201.278688383526</v>
+        <v>1382.264530611908</v>
       </c>
       <c r="P30" t="n">
         <v>1558.966900987038</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>636.3356604677705</v>
+        <v>551.2773681284508</v>
       </c>
       <c r="C31" t="n">
-        <v>464.3630973466865</v>
+        <v>379.3048050073668</v>
       </c>
       <c r="D31" t="n">
-        <v>301.0463244734572</v>
+        <v>379.3048050073668</v>
       </c>
       <c r="E31" t="n">
-        <v>134.8381186263107</v>
+        <v>379.3048050073668</v>
       </c>
       <c r="F31" t="n">
-        <v>42.07414723705197</v>
+        <v>207.4430307819272</v>
       </c>
       <c r="G31" t="n">
         <v>42.07414723705197</v>
@@ -6621,52 +6621,52 @@
         <v>42.07414723705197</v>
       </c>
       <c r="J31" t="n">
-        <v>161.1036919739774</v>
+        <v>83.18197532575658</v>
       </c>
       <c r="K31" t="n">
-        <v>488.7574867034314</v>
+        <v>410.8357700552106</v>
       </c>
       <c r="L31" t="n">
-        <v>773.8723682353755</v>
+        <v>894.9318025300092</v>
       </c>
       <c r="M31" t="n">
-        <v>1294.539940293894</v>
+        <v>1009.023349817385</v>
       </c>
       <c r="N31" t="n">
-        <v>1407.195493553639</v>
+        <v>1519.711825919012</v>
       </c>
       <c r="O31" t="n">
-        <v>1507.950253869573</v>
+        <v>1972.07995582078</v>
       </c>
       <c r="P31" t="n">
-        <v>1903.821991506513</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q31" t="n">
         <v>2103.707361852598</v>
       </c>
       <c r="R31" t="n">
-        <v>2096.600331737728</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S31" t="n">
-        <v>1941.942203988056</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.942203988056</v>
+        <v>1709.504436289004</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.806196551682</v>
+        <v>1429.36842885263</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.09472915971</v>
+        <v>1258.859637222198</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.242325332223</v>
+        <v>984.0072333947113</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6784287780284</v>
+        <v>741.4433368405164</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3356604677705</v>
+        <v>741.4433368405164</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1023.432367504232</v>
+        <v>1066.262887573027</v>
       </c>
       <c r="C32" t="n">
-        <v>745.6434727011433</v>
+        <v>639.3621575863269</v>
       </c>
       <c r="D32" t="n">
-        <v>745.6434727011433</v>
+        <v>639.3621575863269</v>
       </c>
       <c r="E32" t="n">
-        <v>319.6665328490009</v>
+        <v>639.3621575863269</v>
       </c>
       <c r="F32" t="n">
-        <v>319.6665328490009</v>
+        <v>639.3621575863269</v>
       </c>
       <c r="G32" t="n">
         <v>319.6665328490009</v>
       </c>
       <c r="H32" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I32" t="n">
-        <v>82.68042202224498</v>
+        <v>82.68042202224495</v>
       </c>
       <c r="J32" t="n">
         <v>218.2468288562427</v>
       </c>
       <c r="K32" t="n">
-        <v>429.6707399497118</v>
+        <v>429.6707399497113</v>
       </c>
       <c r="L32" t="n">
-        <v>697.9573333441465</v>
+        <v>697.957333344146</v>
       </c>
       <c r="M32" t="n">
-        <v>1001.624145372458</v>
+        <v>1001.624145372457</v>
       </c>
       <c r="N32" t="n">
-        <v>1310.954347754826</v>
+        <v>1310.954347754825</v>
       </c>
       <c r="O32" t="n">
         <v>1600.879106339949</v>
       </c>
       <c r="P32" t="n">
-        <v>1842.716767506419</v>
+        <v>1842.716767506418</v>
       </c>
       <c r="Q32" t="n">
-        <v>2016.498708143957</v>
+        <v>2016.498708143956</v>
       </c>
       <c r="R32" t="n">
         <v>2103.707361852598</v>
       </c>
       <c r="S32" t="n">
-        <v>2044.455574966373</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="T32" t="n">
-        <v>2044.455574966373</v>
+        <v>1891.448521909667</v>
       </c>
       <c r="U32" t="n">
-        <v>1786.259052423092</v>
+        <v>1891.448521909667</v>
       </c>
       <c r="V32" t="n">
-        <v>1428.769637549342</v>
+        <v>1891.448521909667</v>
       </c>
       <c r="W32" t="n">
-        <v>1428.769637549342</v>
+        <v>1891.448521909667</v>
       </c>
       <c r="X32" t="n">
-        <v>1428.769637549342</v>
+        <v>1891.448521909667</v>
       </c>
       <c r="Y32" t="n">
-        <v>1023.432367504232</v>
+        <v>1486.111251864557</v>
       </c>
     </row>
     <row r="33">
@@ -6770,31 +6770,31 @@
         <v>178.214045565104</v>
       </c>
       <c r="G33" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949143</v>
       </c>
       <c r="H33" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I33" t="n">
         <v>61.80940056264829</v>
       </c>
       <c r="J33" t="n">
-        <v>139.4939236196041</v>
+        <v>320.4797658479854</v>
       </c>
       <c r="K33" t="n">
-        <v>284.9693059505254</v>
+        <v>465.9551481789067</v>
       </c>
       <c r="L33" t="n">
-        <v>488.106323209401</v>
+        <v>669.0921654377823</v>
       </c>
       <c r="M33" t="n">
-        <v>728.3031320743905</v>
+        <v>909.2889743027717</v>
       </c>
       <c r="N33" t="n">
-        <v>977.1986405409339</v>
+        <v>1158.184482769315</v>
       </c>
       <c r="O33" t="n">
-        <v>1201.278688383526</v>
+        <v>1382.264530611908</v>
       </c>
       <c r="P33" t="n">
         <v>1558.966900987038</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>206.6248939417825</v>
+        <v>878.8995570219649</v>
       </c>
       <c r="C34" t="n">
-        <v>206.6248939417825</v>
+        <v>706.9269939008809</v>
       </c>
       <c r="D34" t="n">
-        <v>43.30812106855325</v>
+        <v>543.6102210276516</v>
       </c>
       <c r="E34" t="n">
-        <v>43.30812106855325</v>
+        <v>377.4020151805051</v>
       </c>
       <c r="F34" t="n">
-        <v>43.30812106855325</v>
+        <v>205.5402409550656</v>
       </c>
       <c r="G34" t="n">
-        <v>43.30812106855325</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="H34" t="n">
-        <v>43.30812106855325</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I34" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="J34" t="n">
-        <v>83.18197532575658</v>
+        <v>83.18197532575657</v>
       </c>
       <c r="K34" t="n">
-        <v>318.6500362285153</v>
+        <v>163.5531609411885</v>
       </c>
       <c r="L34" t="n">
-        <v>802.746068703314</v>
+        <v>647.6491934159872</v>
       </c>
       <c r="M34" t="n">
-        <v>916.8376159906902</v>
+        <v>982.9343951000167</v>
       </c>
       <c r="N34" t="n">
-        <v>1029.493169250436</v>
+        <v>1493.622871201643</v>
       </c>
       <c r="O34" t="n">
-        <v>1507.950253869573</v>
+        <v>1972.079955820779</v>
       </c>
       <c r="P34" t="n">
-        <v>1903.821991506513</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q34" t="n">
         <v>2103.707361852598</v>
       </c>
       <c r="R34" t="n">
-        <v>2096.600331737728</v>
+        <v>2096.600331737727</v>
       </c>
       <c r="S34" t="n">
-        <v>1941.942203988056</v>
+        <v>1941.942203988055</v>
       </c>
       <c r="T34" t="n">
-        <v>1702.397406174133</v>
+        <v>1941.942203988055</v>
       </c>
       <c r="U34" t="n">
-        <v>1422.261398737759</v>
+        <v>1661.806196551681</v>
       </c>
       <c r="V34" t="n">
-        <v>1140.549931345788</v>
+        <v>1380.09472915971</v>
       </c>
       <c r="W34" t="n">
-        <v>865.6975275183011</v>
+        <v>1105.242325332223</v>
       </c>
       <c r="X34" t="n">
-        <v>623.1336309641061</v>
+        <v>1105.242325332223</v>
       </c>
       <c r="Y34" t="n">
-        <v>396.7908626538482</v>
+        <v>878.8995570219649</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1145.318380320712</v>
+        <v>1227.914729321277</v>
       </c>
       <c r="C35" t="n">
-        <v>1145.318380320712</v>
+        <v>1227.914729321277</v>
       </c>
       <c r="D35" t="n">
-        <v>722.0257595057121</v>
+        <v>804.6221085062771</v>
       </c>
       <c r="E35" t="n">
-        <v>722.0257595057121</v>
+        <v>804.6221085062771</v>
       </c>
       <c r="F35" t="n">
-        <v>722.0257595057121</v>
+        <v>379.4979266956773</v>
       </c>
       <c r="G35" t="n">
-        <v>319.6665328490009</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="H35" t="n">
         <v>42.07414723705197</v>
       </c>
       <c r="I35" t="n">
-        <v>82.68042202224501</v>
+        <v>82.68042202224456</v>
       </c>
       <c r="J35" t="n">
-        <v>218.2468288562428</v>
+        <v>218.2468288562425</v>
       </c>
       <c r="K35" t="n">
-        <v>429.6707399497116</v>
+        <v>429.6707399497114</v>
       </c>
       <c r="L35" t="n">
-        <v>697.9573333441462</v>
+        <v>697.957333344146</v>
       </c>
       <c r="M35" t="n">
         <v>1001.624145372458</v>
@@ -6967,22 +6967,22 @@
         <v>2103.707361852598</v>
       </c>
       <c r="T35" t="n">
-        <v>2103.707361852598</v>
+        <v>1891.448521909667</v>
       </c>
       <c r="U35" t="n">
-        <v>1914.527794026715</v>
+        <v>1633.251999366387</v>
       </c>
       <c r="V35" t="n">
-        <v>1557.038379152965</v>
+        <v>1633.251999366387</v>
       </c>
       <c r="W35" t="n">
-        <v>1557.038379152965</v>
+        <v>1633.251999366387</v>
       </c>
       <c r="X35" t="n">
-        <v>1145.318380320712</v>
+        <v>1633.251999366387</v>
       </c>
       <c r="Y35" t="n">
-        <v>1145.318380320712</v>
+        <v>1227.914729321277</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>61.80940056264829</v>
       </c>
       <c r="J36" t="n">
-        <v>425.9352661328912</v>
+        <v>320.4797658479854</v>
       </c>
       <c r="K36" t="n">
-        <v>571.4106484638125</v>
+        <v>465.9551481789067</v>
       </c>
       <c r="L36" t="n">
-        <v>774.5476657226882</v>
+        <v>669.0921654377823</v>
       </c>
       <c r="M36" t="n">
-        <v>1014.744474587678</v>
+        <v>909.2889743027717</v>
       </c>
       <c r="N36" t="n">
-        <v>1263.639983054221</v>
+        <v>1158.184482769315</v>
       </c>
       <c r="O36" t="n">
-        <v>1487.720030896813</v>
+        <v>1382.264530611908</v>
       </c>
       <c r="P36" t="n">
-        <v>1664.422401271943</v>
+        <v>1558.966900987038</v>
       </c>
       <c r="Q36" t="n">
-        <v>1774.431386909859</v>
+        <v>1668.975886624954</v>
       </c>
       <c r="R36" t="n">
         <v>1815.456240001607</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>493.8679314930275</v>
+        <v>551.2773681284508</v>
       </c>
       <c r="C37" t="n">
-        <v>321.8953683719435</v>
+        <v>379.3048050073668</v>
       </c>
       <c r="D37" t="n">
-        <v>321.8953683719435</v>
+        <v>379.3048050073668</v>
       </c>
       <c r="E37" t="n">
-        <v>155.6871625247971</v>
+        <v>379.3048050073668</v>
       </c>
       <c r="F37" t="n">
-        <v>155.6871625247971</v>
+        <v>207.4430307819272</v>
       </c>
       <c r="G37" t="n">
-        <v>115.1355425855672</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="H37" t="n">
-        <v>115.1355425855672</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I37" t="n">
         <v>42.07414723705197</v>
       </c>
       <c r="J37" t="n">
-        <v>161.1036919739774</v>
+        <v>83.18197532575658</v>
       </c>
       <c r="K37" t="n">
-        <v>488.7574867034314</v>
+        <v>163.5531609411885</v>
       </c>
       <c r="L37" t="n">
-        <v>972.85351917823</v>
+        <v>647.6491934159872</v>
       </c>
       <c r="M37" t="n">
-        <v>1086.945066465606</v>
+        <v>761.7407407033634</v>
       </c>
       <c r="N37" t="n">
-        <v>1597.633542567232</v>
+        <v>1272.429216804989</v>
       </c>
       <c r="O37" t="n">
-        <v>1972.07995582078</v>
+        <v>1750.886301424126</v>
       </c>
       <c r="P37" t="n">
         <v>2055.195488884412</v>
@@ -7119,28 +7119,28 @@
         <v>2103.707361852598</v>
       </c>
       <c r="R37" t="n">
-        <v>2103.707361852598</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="S37" t="n">
-        <v>1949.049234102926</v>
+        <v>2060.251909864466</v>
       </c>
       <c r="T37" t="n">
-        <v>1709.504436289004</v>
+        <v>1820.707112050544</v>
       </c>
       <c r="U37" t="n">
-        <v>1709.504436289004</v>
+        <v>1540.571104614169</v>
       </c>
       <c r="V37" t="n">
-        <v>1427.792968897033</v>
+        <v>1258.859637222198</v>
       </c>
       <c r="W37" t="n">
-        <v>1152.940565069546</v>
+        <v>984.0072333947113</v>
       </c>
       <c r="X37" t="n">
-        <v>910.3766685153511</v>
+        <v>741.4433368405164</v>
       </c>
       <c r="Y37" t="n">
-        <v>684.0339002050931</v>
+        <v>741.4433368405164</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>408.3994490745048</v>
+        <v>1698.370091807489</v>
       </c>
       <c r="C38" t="n">
-        <v>42.07414723705197</v>
+        <v>1316.467889714794</v>
       </c>
       <c r="D38" t="n">
-        <v>42.07414723705197</v>
+        <v>893.1752688997942</v>
       </c>
       <c r="E38" t="n">
-        <v>42.07414723705197</v>
+        <v>467.1983290476518</v>
       </c>
       <c r="F38" t="n">
         <v>42.07414723705197</v>
@@ -7171,16 +7171,16 @@
         <v>42.07414723705197</v>
       </c>
       <c r="I38" t="n">
-        <v>82.68042202224478</v>
+        <v>82.68042202224501</v>
       </c>
       <c r="J38" t="n">
-        <v>218.2468288562427</v>
+        <v>218.2468288562428</v>
       </c>
       <c r="K38" t="n">
         <v>429.6707399497116</v>
       </c>
       <c r="L38" t="n">
-        <v>697.9573333441463</v>
+        <v>697.9573333441462</v>
       </c>
       <c r="M38" t="n">
         <v>1001.624145372458</v>
@@ -7201,25 +7201,25 @@
         <v>2103.707361852598</v>
       </c>
       <c r="S38" t="n">
-        <v>2044.455574966373</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="T38" t="n">
-        <v>1832.196735023442</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="U38" t="n">
-        <v>1574.000212480161</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="V38" t="n">
-        <v>1216.510797606411</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="W38" t="n">
-        <v>820.1194479067576</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="X38" t="n">
-        <v>408.3994490745048</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="Y38" t="n">
-        <v>408.3994490745048</v>
+        <v>1698.370091807489</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>42.07414723705197</v>
       </c>
       <c r="I39" t="n">
-        <v>61.80940056264829</v>
+        <v>85.26670640706013</v>
       </c>
       <c r="J39" t="n">
-        <v>139.4939236196041</v>
+        <v>320.4797658479854</v>
       </c>
       <c r="K39" t="n">
-        <v>284.9693059505254</v>
+        <v>465.9551481789067</v>
       </c>
       <c r="L39" t="n">
-        <v>488.106323209401</v>
+        <v>669.0921654377823</v>
       </c>
       <c r="M39" t="n">
-        <v>728.3031320743905</v>
+        <v>909.2889743027717</v>
       </c>
       <c r="N39" t="n">
-        <v>977.1986405409339</v>
+        <v>1158.184482769315</v>
       </c>
       <c r="O39" t="n">
-        <v>1487.720030896813</v>
+        <v>1382.264530611908</v>
       </c>
       <c r="P39" t="n">
-        <v>1664.422401271943</v>
+        <v>1558.966900987038</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.431386909859</v>
+        <v>1668.975886624954</v>
       </c>
       <c r="R39" t="n">
         <v>1815.456240001607</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>549.2252574568048</v>
+        <v>882.7872534477344</v>
       </c>
       <c r="C40" t="n">
-        <v>377.2526943357208</v>
+        <v>710.8146903266504</v>
       </c>
       <c r="D40" t="n">
-        <v>213.9359214624915</v>
+        <v>547.4979174534211</v>
       </c>
       <c r="E40" t="n">
-        <v>213.9359214624915</v>
+        <v>381.2897116062746</v>
       </c>
       <c r="F40" t="n">
-        <v>42.07414723705197</v>
+        <v>209.4279373808351</v>
       </c>
       <c r="G40" t="n">
-        <v>42.07414723705197</v>
+        <v>209.4279373808351</v>
       </c>
       <c r="H40" t="n">
-        <v>42.07414723705197</v>
+        <v>73.52756221038069</v>
       </c>
       <c r="I40" t="n">
         <v>42.07414723705197</v>
       </c>
       <c r="J40" t="n">
-        <v>161.1036919739774</v>
+        <v>83.18197532575658</v>
       </c>
       <c r="K40" t="n">
-        <v>488.7574867034314</v>
+        <v>318.6500362285153</v>
       </c>
       <c r="L40" t="n">
-        <v>972.85351917823</v>
+        <v>802.746068703314</v>
       </c>
       <c r="M40" t="n">
-        <v>1086.945066465606</v>
+        <v>916.8376159906902</v>
       </c>
       <c r="N40" t="n">
-        <v>1342.249373823744</v>
+        <v>1029.493169250436</v>
       </c>
       <c r="O40" t="n">
-        <v>1820.706458442881</v>
+        <v>1507.950253869573</v>
       </c>
       <c r="P40" t="n">
         <v>1903.821991506513</v>
@@ -7356,28 +7356,28 @@
         <v>2103.707361852598</v>
       </c>
       <c r="R40" t="n">
-        <v>2096.600331737728</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S40" t="n">
-        <v>1941.942203988056</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.861762252781</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="U40" t="n">
-        <v>1764.861762252781</v>
+        <v>1823.571354416224</v>
       </c>
       <c r="V40" t="n">
-        <v>1483.15029486081</v>
+        <v>1541.859887024253</v>
       </c>
       <c r="W40" t="n">
-        <v>1208.297891033323</v>
+        <v>1541.859887024253</v>
       </c>
       <c r="X40" t="n">
-        <v>965.7339944791283</v>
+        <v>1299.295990470058</v>
       </c>
       <c r="Y40" t="n">
-        <v>739.3912261688704</v>
+        <v>1072.9532221598</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1320.075998886494</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="C41" t="n">
-        <v>893.1752688997942</v>
+        <v>1617.554844979673</v>
       </c>
       <c r="D41" t="n">
-        <v>893.1752688997942</v>
+        <v>1194.262224164673</v>
       </c>
       <c r="E41" t="n">
-        <v>467.1983290476518</v>
+        <v>768.285284312531</v>
       </c>
       <c r="F41" t="n">
-        <v>42.07414723705197</v>
+        <v>343.1611025019312</v>
       </c>
       <c r="G41" t="n">
         <v>42.07414723705197</v>
@@ -7408,19 +7408,19 @@
         <v>42.07414723705197</v>
       </c>
       <c r="I41" t="n">
-        <v>82.68042202224478</v>
+        <v>82.68042202224456</v>
       </c>
       <c r="J41" t="n">
-        <v>218.2468288562422</v>
+        <v>218.2468288562425</v>
       </c>
       <c r="K41" t="n">
-        <v>429.6707399497111</v>
+        <v>429.6707399497114</v>
       </c>
       <c r="L41" t="n">
-        <v>697.9573333441458</v>
+        <v>697.957333344146</v>
       </c>
       <c r="M41" t="n">
-        <v>1001.624145372457</v>
+        <v>1001.624145372458</v>
       </c>
       <c r="N41" t="n">
         <v>1310.954347754825</v>
@@ -7435,28 +7435,28 @@
         <v>2016.498708143957</v>
       </c>
       <c r="R41" t="n">
-        <v>2103.707361852599</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S41" t="n">
         <v>2044.455574966373</v>
       </c>
       <c r="T41" t="n">
-        <v>1832.196735023442</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="U41" t="n">
-        <v>1832.196735023442</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="V41" t="n">
-        <v>1832.196735023442</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="W41" t="n">
-        <v>1832.196735023442</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="X41" t="n">
-        <v>1725.413268931604</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="Y41" t="n">
-        <v>1320.075998886494</v>
+        <v>2044.455574966373</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>42.07414723705197</v>
       </c>
       <c r="I42" t="n">
-        <v>61.80940056264831</v>
+        <v>85.26670640706013</v>
       </c>
       <c r="J42" t="n">
-        <v>139.4939236196041</v>
+        <v>320.4797658479854</v>
       </c>
       <c r="K42" t="n">
-        <v>284.9693059505254</v>
+        <v>465.9551481789067</v>
       </c>
       <c r="L42" t="n">
-        <v>488.1063232094011</v>
+        <v>669.0921654377823</v>
       </c>
       <c r="M42" t="n">
-        <v>728.3031320743906</v>
+        <v>909.2889743027717</v>
       </c>
       <c r="N42" t="n">
-        <v>1248.970704132909</v>
+        <v>1158.184482769315</v>
       </c>
       <c r="O42" t="n">
-        <v>1473.050751975501</v>
+        <v>1382.264530611908</v>
       </c>
       <c r="P42" t="n">
-        <v>1649.753122350632</v>
+        <v>1558.966900987038</v>
       </c>
       <c r="Q42" t="n">
-        <v>1759.762107988548</v>
+        <v>1668.975886624954</v>
       </c>
       <c r="R42" t="n">
         <v>1815.456240001607</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1082.831384464557</v>
+        <v>754.4747813734828</v>
       </c>
       <c r="C43" t="n">
-        <v>910.8588213434732</v>
+        <v>754.4747813734828</v>
       </c>
       <c r="D43" t="n">
         <v>754.4747813734828</v>
@@ -7569,34 +7569,34 @@
         <v>42.07414723705197</v>
       </c>
       <c r="J43" t="n">
-        <v>83.1819753257566</v>
+        <v>83.18197532575658</v>
       </c>
       <c r="K43" t="n">
         <v>163.5531609411885</v>
       </c>
       <c r="L43" t="n">
-        <v>647.6491934159872</v>
+        <v>462.266823041499</v>
       </c>
       <c r="M43" t="n">
-        <v>1168.316765474505</v>
+        <v>982.9343951000171</v>
       </c>
       <c r="N43" t="n">
-        <v>1280.972318734251</v>
+        <v>1493.622871201643</v>
       </c>
       <c r="O43" t="n">
-        <v>1759.429403353388</v>
+        <v>1972.07995582078</v>
       </c>
       <c r="P43" t="n">
-        <v>1903.821991506513</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q43" t="n">
-        <v>2103.707361852599</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="R43" t="n">
-        <v>2103.707361852599</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S43" t="n">
-        <v>2103.707361852599</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="T43" t="n">
         <v>1864.162564038676</v>
@@ -7605,16 +7605,16 @@
         <v>1584.026556602302</v>
       </c>
       <c r="V43" t="n">
-        <v>1584.026556602302</v>
+        <v>1413.547414950001</v>
       </c>
       <c r="W43" t="n">
-        <v>1309.174152774815</v>
+        <v>1413.547414950001</v>
       </c>
       <c r="X43" t="n">
-        <v>1309.174152774815</v>
+        <v>1170.983518395806</v>
       </c>
       <c r="Y43" t="n">
-        <v>1082.831384464557</v>
+        <v>944.6407500855485</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1574.050671303012</v>
+        <v>1219.269940629733</v>
       </c>
       <c r="C44" t="n">
-        <v>1147.149941316312</v>
+        <v>792.3692106430333</v>
       </c>
       <c r="D44" t="n">
-        <v>1147.149941316312</v>
+        <v>792.3692106430333</v>
       </c>
       <c r="E44" t="n">
-        <v>1147.149941316312</v>
+        <v>366.3922707908908</v>
       </c>
       <c r="F44" t="n">
-        <v>722.0257595057121</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="G44" t="n">
-        <v>319.6665328490009</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="H44" t="n">
         <v>42.07414723705197</v>
       </c>
       <c r="I44" t="n">
-        <v>82.68042202224501</v>
+        <v>82.68042202224498</v>
       </c>
       <c r="J44" t="n">
         <v>218.2468288562427</v>
       </c>
       <c r="K44" t="n">
-        <v>429.6707399497118</v>
+        <v>429.6707399497115</v>
       </c>
       <c r="L44" t="n">
-        <v>697.9573333441465</v>
+        <v>697.9573333441462</v>
       </c>
       <c r="M44" t="n">
         <v>1001.624145372458</v>
       </c>
       <c r="N44" t="n">
-        <v>1310.954347754826</v>
+        <v>1310.954347754825</v>
       </c>
       <c r="O44" t="n">
-        <v>1600.87910633995</v>
+        <v>1600.879106339949</v>
       </c>
       <c r="P44" t="n">
         <v>1842.716767506419</v>
@@ -7672,28 +7672,28 @@
         <v>2016.498708143957</v>
       </c>
       <c r="R44" t="n">
-        <v>2103.707361852599</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S44" t="n">
         <v>2044.455574966373</v>
       </c>
       <c r="T44" t="n">
-        <v>1832.196735023442</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="U44" t="n">
-        <v>1574.050671303012</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="V44" t="n">
-        <v>1574.050671303012</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="W44" t="n">
-        <v>1574.050671303012</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="X44" t="n">
-        <v>1574.050671303012</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="Y44" t="n">
-        <v>1574.050671303012</v>
+        <v>1639.118304921263</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>886.1587934274643</v>
+        <v>597.9076715764728</v>
       </c>
       <c r="C45" t="n">
-        <v>768.652889944969</v>
+        <v>480.4017680939776</v>
       </c>
       <c r="D45" t="n">
-        <v>664.812931460254</v>
+        <v>376.5618096092626</v>
       </c>
       <c r="E45" t="n">
-        <v>560.1109977331913</v>
+        <v>271.8598758821998</v>
       </c>
       <c r="F45" t="n">
-        <v>466.4651674160955</v>
+        <v>178.214045565104</v>
       </c>
       <c r="G45" t="n">
-        <v>373.470701150483</v>
+        <v>85.21957929949144</v>
       </c>
       <c r="H45" t="n">
-        <v>330.3252690880435</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I45" t="n">
-        <v>350.0605224136398</v>
+        <v>85.26670640706013</v>
       </c>
       <c r="J45" t="n">
-        <v>427.7450454705956</v>
+        <v>162.9512294640159</v>
       </c>
       <c r="K45" t="n">
-        <v>573.220427801517</v>
+        <v>308.4266117949372</v>
       </c>
       <c r="L45" t="n">
-        <v>1062.798787573679</v>
+        <v>511.5636290538129</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.995596438669</v>
+        <v>751.7604379188024</v>
       </c>
       <c r="N45" t="n">
-        <v>1551.891104905212</v>
+        <v>1000.655946385346</v>
       </c>
       <c r="O45" t="n">
-        <v>1775.971152747805</v>
+        <v>1224.735994227938</v>
       </c>
       <c r="P45" t="n">
-        <v>1952.673523122935</v>
+        <v>1401.438364603068</v>
       </c>
       <c r="Q45" t="n">
-        <v>2062.682508760851</v>
+        <v>1668.975886624954</v>
       </c>
       <c r="R45" t="n">
-        <v>2103.707361852599</v>
+        <v>1815.456240001607</v>
       </c>
       <c r="S45" t="n">
-        <v>2042.059249780423</v>
+        <v>1753.808127929432</v>
       </c>
       <c r="T45" t="n">
-        <v>1904.449058683032</v>
+        <v>1616.19793683204</v>
       </c>
       <c r="U45" t="n">
-        <v>1719.750553755088</v>
+        <v>1431.499431904097</v>
       </c>
       <c r="V45" t="n">
-        <v>1514.777414894354</v>
+        <v>1226.526293043363</v>
       </c>
       <c r="W45" t="n">
-        <v>1318.256037727572</v>
+        <v>1030.00491587658</v>
       </c>
       <c r="X45" t="n">
-        <v>1154.778691494235</v>
+        <v>866.5275696432432</v>
       </c>
       <c r="Y45" t="n">
-        <v>1015.085802847527</v>
+        <v>726.8346809965356</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>754.4747813734828</v>
+        <v>361.2830216914544</v>
       </c>
       <c r="C46" t="n">
-        <v>754.4747813734828</v>
+        <v>189.3104585703704</v>
       </c>
       <c r="D46" t="n">
-        <v>754.4747813734828</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="E46" t="n">
-        <v>588.2665755263363</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="F46" t="n">
-        <v>416.4048013008967</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="G46" t="n">
-        <v>251.0359177560215</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="H46" t="n">
-        <v>115.1355425855672</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I46" t="n">
         <v>42.07414723705197</v>
       </c>
       <c r="J46" t="n">
-        <v>83.1819753257566</v>
+        <v>83.18197532575658</v>
       </c>
       <c r="K46" t="n">
-        <v>318.6500362285158</v>
+        <v>163.5531609411885</v>
       </c>
       <c r="L46" t="n">
-        <v>802.7460687033144</v>
+        <v>462.266823041499</v>
       </c>
       <c r="M46" t="n">
-        <v>916.8376159906907</v>
+        <v>982.9343951000171</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.493169250436</v>
+        <v>1493.622871201643</v>
       </c>
       <c r="O46" t="n">
-        <v>1507.950253869573</v>
+        <v>1972.07995582078</v>
       </c>
       <c r="P46" t="n">
-        <v>1903.821991506513</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q46" t="n">
-        <v>2103.707361852599</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="R46" t="n">
         <v>2096.600331737728</v>
       </c>
       <c r="S46" t="n">
-        <v>1941.942203988056</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="T46" t="n">
-        <v>1702.397406174134</v>
+        <v>1857.055533923805</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.381420903199</v>
+        <v>1576.919526487431</v>
       </c>
       <c r="V46" t="n">
-        <v>1255.669953511228</v>
+        <v>1295.20805909546</v>
       </c>
       <c r="W46" t="n">
-        <v>980.8175496837407</v>
+        <v>1020.355655267973</v>
       </c>
       <c r="X46" t="n">
-        <v>980.8175496837407</v>
+        <v>777.791758713778</v>
       </c>
       <c r="Y46" t="n">
-        <v>754.4747813734828</v>
+        <v>551.44899040352</v>
       </c>
     </row>
   </sheetData>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>159.1197337211814</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>14.81745345587163</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.5172359514896</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>126.1714586942926</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>410.6828533041837</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>93.06164078761402</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>289.3346894073608</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.8139820488705</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>47.46265399911968</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>410.6828533041836</v>
+        <v>39.2496616288152</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>265.6404410796724</v>
+        <v>289.3346894073608</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9330,19 +9330,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>410.6828533041836</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>30.62026574067197</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>59.78561974869091</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>289.3346894073608</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>274.5172359514897</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>14.817453455871</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>192.9358820370476</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>410.6828533041839</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>57.41874757619087</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9801,10 +9801,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>56.0920498872633</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>208.9945724912018</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>182.81398204887</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>182.8139820488699</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10044,16 +10044,16 @@
         <v>410.6828533041837</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>279.0739812982314</v>
       </c>
       <c r="O28" t="n">
-        <v>26.92669587924456</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>182.81398204887</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>182.8139820488699</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>179.1997400487983</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>410.6828533041838</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>355.1650197836716</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>182.81398204887</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>182.8139820488699</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>156.6635103912392</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>223.4279337339933</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>289.3346894073608</v>
+        <v>182.81398204887</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10758,10 +10758,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>276.456215088499</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>223.4279337339936</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>159.1197337211813</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>289.3346894073607</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>156.6635103912392</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -10992,13 +10992,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>144.0896506044363</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>159.1197337211813</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>274.5172359514897</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.81745345587061</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,22 +11223,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>192.9358820370473</v>
       </c>
       <c r="M43" t="n">
         <v>410.6828533041838</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>61.89601524191218</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>289.3346894073604</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>159.1197337211813</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>156.6635103912396</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>192.9358820370473</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>410.6828533041838</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23263,19 +23263,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>188.5952354638221</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.8164617558294</v>
+        <v>208.0588450647579</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.1362515435019</v>
@@ -23317,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>83.17134109583692</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3346473620106</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>184.6295341776429</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23509,7 +23509,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>28.45421819716404</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>183.1853693549038</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.2527259751731</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H16" t="n">
         <v>134.5413714187498</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>153.1115464721752</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>53.09767576677177</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -23743,13 +23743,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>300.2915186669171</v>
       </c>
       <c r="G17" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.1362515435019</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>202.156163720129</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>115.0950192527171</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>87.70991344442405</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,13 +23977,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>67.06735231541739</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>274.8164617558294</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>73.26247007214758</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3346473620106</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>109.4979865582063</v>
+        <v>206.7122875217842</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24217,13 +24217,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>67.06735231541739</v>
+        <v>57.00489488289492</v>
       </c>
       <c r="G23" t="n">
         <v>398.335634390144</v>
       </c>
       <c r="H23" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.65926901736313</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>108.55737647227</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H25" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>61.10820459379468</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>327.7100464798862</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>334.3907541379991</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.6145573178477</v>
@@ -24508,10 +24508,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24606,13 +24606,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>88.14075731285381</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.7151947094264</v>
@@ -24621,7 +24621,7 @@
         <v>134.5413714187498</v>
       </c>
       <c r="I28" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>163.3244896954887</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>280.5348818715996</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>60.87627876787002</v>
       </c>
       <c r="H29" t="n">
         <v>274.8164617558294</v>
@@ -24733,7 +24733,7 @@
         <v>58.65926901736314</v>
       </c>
       <c r="T29" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>78.30682480781901</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>134.5413714187498</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>110.090649003924</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>147.6207168317748</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.335634390144</v>
+        <v>81.83696590019127</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T32" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7151947094264</v>
+        <v>1.883761928592975</v>
       </c>
       <c r="H34" t="n">
         <v>134.5413714187498</v>
       </c>
       <c r="I34" t="n">
-        <v>71.10914730184376</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>64.28609272610504</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>58.65926901736314</v>
       </c>
       <c r="T35" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>68.32678517022333</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,19 +25320,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>123.5690909695888</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>134.5413714187498</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.035959813722016</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>117.1266088176458</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3346473620106</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25393,16 +25393,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>59.96967386775458</v>
+        <v>44.54854261506506</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.335634390144</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>163.7151947094264</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.33078139503003</v>
+        <v>41.19190057143459</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T40" t="n">
-        <v>61.83971251786127</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3346473620106</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.335634390144</v>
+        <v>100.2595486779136</v>
       </c>
       <c r="H41" t="n">
         <v>274.8164617558294</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U41" t="n">
         <v>255.6145573178477</v>
@@ -25693,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>301.8871674130102</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>6.863405574206467</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.035959813722009</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S43" t="n">
         <v>153.1115464721751</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>110.1200024822739</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>99.79799767419331</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04995423462153781</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>15.91965692451174</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>113.9688219437849</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>377310.0823770146</v>
+        <v>377310.0823770145</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>377310.0823770144</v>
+        <v>377310.0823770146</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>377310.0823770145</v>
+        <v>377310.0823770146</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>377310.0823770146</v>
+        <v>377310.0823770144</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>377310.0823770146</v>
+        <v>377310.0823770145</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>401640.1903626064</v>
+        <v>401640.1903626065</v>
       </c>
       <c r="C2" t="n">
-        <v>401640.8468620668</v>
+        <v>401640.8468620667</v>
       </c>
       <c r="D2" t="n">
-        <v>401641.689481196</v>
+        <v>401641.6894811962</v>
       </c>
       <c r="E2" t="n">
-        <v>236353.2737712915</v>
+        <v>236353.2737712917</v>
       </c>
       <c r="F2" t="n">
         <v>236353.2737712916</v>
@@ -26331,7 +26331,7 @@
         <v>236353.2737712915</v>
       </c>
       <c r="H2" t="n">
-        <v>236353.2737712915</v>
+        <v>236353.2737712916</v>
       </c>
       <c r="I2" t="n">
         <v>236353.2737712915</v>
@@ -26340,10 +26340,10 @@
         <v>236353.2737712915</v>
       </c>
       <c r="K2" t="n">
-        <v>236353.2737712916</v>
+        <v>236353.2737712915</v>
       </c>
       <c r="L2" t="n">
-        <v>236353.2737712916</v>
+        <v>236353.2737712915</v>
       </c>
       <c r="M2" t="n">
         <v>236353.2737712915</v>
@@ -26352,10 +26352,10 @@
         <v>236353.2737712915</v>
       </c>
       <c r="O2" t="n">
-        <v>236353.2737712916</v>
+        <v>236353.2737712915</v>
       </c>
       <c r="P2" t="n">
-        <v>236353.2737712916</v>
+        <v>236353.2737712915</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43630.90718593419</v>
+        <v>43630.90718593417</v>
       </c>
       <c r="C3" t="n">
         <v>2668.793398452301</v>
@@ -26374,7 +26374,7 @@
         <v>3221.566157245948</v>
       </c>
       <c r="E3" t="n">
-        <v>506983.174800889</v>
+        <v>506983.1748008891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>23217.71202578545</v>
       </c>
       <c r="F4" t="n">
-        <v>23217.71202578544</v>
+        <v>23217.71202578545</v>
       </c>
       <c r="G4" t="n">
         <v>23217.71202578545</v>
       </c>
       <c r="H4" t="n">
-        <v>23217.71202578544</v>
+        <v>23217.71202578545</v>
       </c>
       <c r="I4" t="n">
         <v>23217.71202578544</v>
@@ -26444,7 +26444,7 @@
         <v>23217.71202578544</v>
       </c>
       <c r="K4" t="n">
-        <v>23217.71202578544</v>
+        <v>23217.71202578545</v>
       </c>
       <c r="L4" t="n">
         <v>23217.71202578544</v>
@@ -26456,10 +26456,10 @@
         <v>23217.71202578545</v>
       </c>
       <c r="O4" t="n">
-        <v>23217.71202578544</v>
+        <v>23217.71202578545</v>
       </c>
       <c r="P4" t="n">
-        <v>23217.71202578544</v>
+        <v>23217.71202578545</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>34760.56666652932</v>
       </c>
       <c r="E5" t="n">
-        <v>42605.14469095521</v>
+        <v>42605.14469095522</v>
       </c>
       <c r="F5" t="n">
-        <v>42605.1446909552</v>
+        <v>42605.14469095522</v>
       </c>
       <c r="G5" t="n">
-        <v>42605.14469095521</v>
+        <v>42605.14469095522</v>
       </c>
       <c r="H5" t="n">
-        <v>42605.14469095522</v>
+        <v>42605.14469095523</v>
       </c>
       <c r="I5" t="n">
         <v>42605.14469095522</v>
@@ -26499,7 +26499,7 @@
         <v>42605.14469095522</v>
       </c>
       <c r="L5" t="n">
-        <v>42605.14469095522</v>
+        <v>42605.14469095521</v>
       </c>
       <c r="M5" t="n">
         <v>42605.14469095522</v>
@@ -26508,10 +26508,10 @@
         <v>42605.14469095522</v>
       </c>
       <c r="O5" t="n">
-        <v>42605.14469095523</v>
+        <v>42605.14469095522</v>
       </c>
       <c r="P5" t="n">
-        <v>42605.14469095523</v>
+        <v>42605.14469095522</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12501.47201576037</v>
+        <v>12479.79459702754</v>
       </c>
       <c r="C6" t="n">
-        <v>54201.43713782571</v>
+        <v>54179.76206373364</v>
       </c>
       <c r="D6" t="n">
-        <v>54558.45437862627</v>
+        <v>54536.78231388847</v>
       </c>
       <c r="E6" t="n">
-        <v>-336452.7577463381</v>
+        <v>-337064.7455814686</v>
       </c>
       <c r="F6" t="n">
-        <v>170530.417054551</v>
+        <v>169918.4292194204</v>
       </c>
       <c r="G6" t="n">
-        <v>170530.4170545508</v>
+        <v>169918.4292194204</v>
       </c>
       <c r="H6" t="n">
-        <v>170530.4170545508</v>
+        <v>169918.4292194204</v>
       </c>
       <c r="I6" t="n">
-        <v>170530.4170545509</v>
+        <v>169918.4292194204</v>
       </c>
       <c r="J6" t="n">
-        <v>170530.4170545509</v>
+        <v>169918.4292194204</v>
       </c>
       <c r="K6" t="n">
-        <v>170530.417054551</v>
+        <v>169918.4292194204</v>
       </c>
       <c r="L6" t="n">
-        <v>170530.417054551</v>
+        <v>169918.4292194204</v>
       </c>
       <c r="M6" t="n">
-        <v>39467.34470377213</v>
+        <v>38855.35686864168</v>
       </c>
       <c r="N6" t="n">
-        <v>170530.4170545508</v>
+        <v>169918.4292194204</v>
       </c>
       <c r="O6" t="n">
-        <v>170530.4170545509</v>
+        <v>169918.4292194204</v>
       </c>
       <c r="P6" t="n">
-        <v>170530.4170545509</v>
+        <v>169918.4292194204</v>
       </c>
     </row>
   </sheetData>
@@ -26749,16 +26749,16 @@
         <v>487.559302330079</v>
       </c>
       <c r="F3" t="n">
-        <v>487.559302330079</v>
+        <v>487.5593023300791</v>
       </c>
       <c r="G3" t="n">
-        <v>487.559302330079</v>
+        <v>487.5593023300791</v>
       </c>
       <c r="H3" t="n">
         <v>487.5593023300791</v>
       </c>
       <c r="I3" t="n">
-        <v>487.5593023300791</v>
+        <v>487.5593023300792</v>
       </c>
       <c r="J3" t="n">
         <v>487.5593023300791</v>
@@ -26776,10 +26776,10 @@
         <v>487.5593023300791</v>
       </c>
       <c r="O3" t="n">
-        <v>487.5593023300792</v>
+        <v>487.5593023300791</v>
       </c>
       <c r="P3" t="n">
-        <v>487.5593023300792</v>
+        <v>487.5593023300791</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.9268404631495</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="F4" t="n">
-        <v>525.9268404631493</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="G4" t="n">
-        <v>525.9268404631495</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="H4" t="n">
-        <v>525.9268404631496</v>
+        <v>525.9268404631497</v>
       </c>
       <c r="I4" t="n">
         <v>525.9268404631496</v>
@@ -26819,7 +26819,7 @@
         <v>525.9268404631496</v>
       </c>
       <c r="L4" t="n">
-        <v>525.9268404631496</v>
+        <v>525.9268404631495</v>
       </c>
       <c r="M4" t="n">
         <v>525.9268404631496</v>
@@ -26828,10 +26828,10 @@
         <v>525.9268404631496</v>
       </c>
       <c r="O4" t="n">
-        <v>525.9268404631497</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="P4" t="n">
-        <v>525.9268404631497</v>
+        <v>525.9268404631496</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.9268404631495</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.9268404631495</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I11" t="n">
-        <v>75.56434172092612</v>
+        <v>75.56434172092614</v>
       </c>
       <c r="J11" t="n">
         <v>166.3557239643721</v>
@@ -31770,10 +31770,10 @@
         <v>309.3086014169003</v>
       </c>
       <c r="M11" t="n">
-        <v>344.1654164633828</v>
+        <v>344.1654164633829</v>
       </c>
       <c r="N11" t="n">
-        <v>349.7343727156254</v>
+        <v>349.7343727156255</v>
       </c>
       <c r="O11" t="n">
         <v>330.2442508561492</v>
@@ -31785,10 +31785,10 @@
         <v>211.6619883798887</v>
       </c>
       <c r="R11" t="n">
-        <v>123.1221990954445</v>
+        <v>123.1221990954446</v>
       </c>
       <c r="S11" t="n">
-        <v>44.66435216822785</v>
+        <v>44.66435216822786</v>
       </c>
       <c r="T11" t="n">
         <v>8.580063702311238</v>
@@ -31840,7 +31840,7 @@
         <v>36.10698606878416</v>
       </c>
       <c r="J12" t="n">
-        <v>99.08032954237956</v>
+        <v>99.08032954237957</v>
       </c>
       <c r="K12" t="n">
         <v>169.3440644706276</v>
@@ -31864,7 +31864,7 @@
         <v>133.8672258020247</v>
       </c>
       <c r="R12" t="n">
-        <v>65.11216494136416</v>
+        <v>65.11216494136417</v>
       </c>
       <c r="S12" t="n">
         <v>19.47937401290456</v>
@@ -31873,7 +31873,7 @@
         <v>4.227047158880589</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06899424089576592</v>
+        <v>0.06899424089576593</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8792052992837489</v>
+        <v>0.879205299283749</v>
       </c>
       <c r="H13" t="n">
-        <v>7.816934388177337</v>
+        <v>7.816934388177338</v>
       </c>
       <c r="I13" t="n">
         <v>26.44010118209675</v>
@@ -31934,7 +31934,7 @@
         <v>134.5423891167578</v>
       </c>
       <c r="O13" t="n">
-        <v>124.2716726660339</v>
+        <v>124.271672666034</v>
       </c>
       <c r="P13" t="n">
         <v>106.3358845606454</v>
@@ -31943,13 +31943,13 @@
         <v>73.62145465184193</v>
       </c>
       <c r="R13" t="n">
-        <v>39.53226736597655</v>
+        <v>39.53226736597656</v>
       </c>
       <c r="S13" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T13" t="n">
-        <v>3.756604460576017</v>
+        <v>3.756604460576018</v>
       </c>
       <c r="U13" t="n">
         <v>0.04795665268820454</v>
@@ -31995,7 +31995,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I14" t="n">
-        <v>75.56434172092612</v>
+        <v>75.56434172092615</v>
       </c>
       <c r="J14" t="n">
         <v>166.3557239643721</v>
@@ -32004,31 +32004,31 @@
         <v>249.3241069498283</v>
       </c>
       <c r="L14" t="n">
-        <v>309.3086014169003</v>
+        <v>309.3086014169004</v>
       </c>
       <c r="M14" t="n">
-        <v>344.1654164633828</v>
+        <v>344.1654164633829</v>
       </c>
       <c r="N14" t="n">
-        <v>349.7343727156254</v>
+        <v>349.7343727156255</v>
       </c>
       <c r="O14" t="n">
         <v>330.2442508561492</v>
       </c>
       <c r="P14" t="n">
-        <v>281.8558276349478</v>
+        <v>281.8558276349479</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.6619883798887</v>
+        <v>211.6619883798888</v>
       </c>
       <c r="R14" t="n">
-        <v>123.1221990954445</v>
+        <v>123.1221990954446</v>
       </c>
       <c r="S14" t="n">
-        <v>44.66435216822785</v>
+        <v>44.66435216822786</v>
       </c>
       <c r="T14" t="n">
-        <v>8.580063702311238</v>
+        <v>8.580063702311239</v>
       </c>
       <c r="U14" t="n">
         <v>0.1568029917041459</v>
@@ -32074,10 +32074,10 @@
         <v>10.12835456349844</v>
       </c>
       <c r="I15" t="n">
-        <v>36.10698606878416</v>
+        <v>36.10698606878417</v>
       </c>
       <c r="J15" t="n">
-        <v>99.08032954237956</v>
+        <v>99.08032954237959</v>
       </c>
       <c r="K15" t="n">
         <v>169.3440644706276</v>
@@ -32086,31 +32086,31 @@
         <v>227.7039930363261</v>
       </c>
       <c r="M15" t="n">
-        <v>265.719819769893</v>
+        <v>265.7198197698931</v>
       </c>
       <c r="N15" t="n">
         <v>272.7526327252015</v>
       </c>
       <c r="O15" t="n">
-        <v>249.5153723915075</v>
+        <v>249.5153723915076</v>
       </c>
       <c r="P15" t="n">
         <v>200.2580840079904</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.8672258020247</v>
+        <v>133.8672258020248</v>
       </c>
       <c r="R15" t="n">
-        <v>65.11216494136416</v>
+        <v>65.11216494136417</v>
       </c>
       <c r="S15" t="n">
         <v>19.47937401290456</v>
       </c>
       <c r="T15" t="n">
-        <v>4.227047158880589</v>
+        <v>4.22704715888059</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06899424089576592</v>
+        <v>0.06899424089576595</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8792052992837489</v>
+        <v>0.8792052992837491</v>
       </c>
       <c r="H16" t="n">
-        <v>7.816934388177337</v>
+        <v>7.816934388177339</v>
       </c>
       <c r="I16" t="n">
         <v>26.44010118209675</v>
       </c>
       <c r="J16" t="n">
-        <v>62.15981465936105</v>
+        <v>62.15981465936106</v>
       </c>
       <c r="K16" t="n">
-        <v>102.1476702258755</v>
+        <v>102.1476702258756</v>
       </c>
       <c r="L16" t="n">
         <v>130.7138496771494</v>
@@ -32171,25 +32171,25 @@
         <v>134.5423891167578</v>
       </c>
       <c r="O16" t="n">
-        <v>124.2716726660339</v>
+        <v>124.271672666034</v>
       </c>
       <c r="P16" t="n">
         <v>106.3358845606454</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.62145465184193</v>
+        <v>73.62145465184194</v>
       </c>
       <c r="R16" t="n">
-        <v>39.53226736597655</v>
+        <v>39.53226736597657</v>
       </c>
       <c r="S16" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T16" t="n">
-        <v>3.756604460576017</v>
+        <v>3.756604460576018</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04795665268820454</v>
+        <v>0.04795665268820455</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I17" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092615</v>
       </c>
       <c r="J17" t="n">
         <v>166.3557239643721</v>
@@ -32241,7 +32241,7 @@
         <v>249.3241069498283</v>
       </c>
       <c r="L17" t="n">
-        <v>309.3086014169003</v>
+        <v>309.3086014169004</v>
       </c>
       <c r="M17" t="n">
         <v>344.1654164633829</v>
@@ -32253,10 +32253,10 @@
         <v>330.2442508561492</v>
       </c>
       <c r="P17" t="n">
-        <v>281.8558276349478</v>
+        <v>281.8558276349479</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.6619883798887</v>
+        <v>211.6619883798888</v>
       </c>
       <c r="R17" t="n">
         <v>123.1221990954446</v>
@@ -32265,7 +32265,7 @@
         <v>44.66435216822786</v>
       </c>
       <c r="T17" t="n">
-        <v>8.580063702311238</v>
+        <v>8.580063702311239</v>
       </c>
       <c r="U17" t="n">
         <v>0.1568029917041459</v>
@@ -32311,10 +32311,10 @@
         <v>10.12835456349844</v>
       </c>
       <c r="I18" t="n">
-        <v>36.10698606878416</v>
+        <v>36.10698606878417</v>
       </c>
       <c r="J18" t="n">
-        <v>99.08032954237957</v>
+        <v>99.08032954237959</v>
       </c>
       <c r="K18" t="n">
         <v>169.3440644706276</v>
@@ -32323,19 +32323,19 @@
         <v>227.7039930363261</v>
       </c>
       <c r="M18" t="n">
-        <v>265.719819769893</v>
+        <v>265.7198197698931</v>
       </c>
       <c r="N18" t="n">
         <v>272.7526327252015</v>
       </c>
       <c r="O18" t="n">
-        <v>249.5153723915075</v>
+        <v>249.5153723915076</v>
       </c>
       <c r="P18" t="n">
         <v>200.2580840079904</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.8672258020247</v>
+        <v>133.8672258020248</v>
       </c>
       <c r="R18" t="n">
         <v>65.11216494136417</v>
@@ -32344,10 +32344,10 @@
         <v>19.47937401290456</v>
       </c>
       <c r="T18" t="n">
-        <v>4.227047158880589</v>
+        <v>4.22704715888059</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576595</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837491</v>
       </c>
       <c r="H19" t="n">
-        <v>7.816934388177338</v>
+        <v>7.816934388177339</v>
       </c>
       <c r="I19" t="n">
         <v>26.44010118209675</v>
       </c>
       <c r="J19" t="n">
-        <v>62.15981465936105</v>
+        <v>62.15981465936106</v>
       </c>
       <c r="K19" t="n">
-        <v>102.1476702258755</v>
+        <v>102.1476702258756</v>
       </c>
       <c r="L19" t="n">
         <v>130.7138496771494</v>
@@ -32414,10 +32414,10 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.62145465184193</v>
+        <v>73.62145465184194</v>
       </c>
       <c r="R19" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597657</v>
       </c>
       <c r="S19" t="n">
         <v>15.32215053388133</v>
@@ -32426,7 +32426,7 @@
         <v>3.756604460576018</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04795665268820454</v>
+        <v>0.04795665268820455</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32712,7 +32712,7 @@
         <v>166.3557239643721</v>
       </c>
       <c r="K23" t="n">
-        <v>249.3241069498283</v>
+        <v>249.3241069498284</v>
       </c>
       <c r="L23" t="n">
         <v>309.3086014169004</v>
@@ -32721,10 +32721,10 @@
         <v>344.1654164633829</v>
       </c>
       <c r="N23" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156256</v>
       </c>
       <c r="O23" t="n">
-        <v>330.2442508561492</v>
+        <v>330.2442508561493</v>
       </c>
       <c r="P23" t="n">
         <v>281.8558276349479</v>
@@ -32788,19 +32788,19 @@
         <v>36.10698606878417</v>
       </c>
       <c r="J24" t="n">
-        <v>99.08032954237959</v>
+        <v>99.0803295423796</v>
       </c>
       <c r="K24" t="n">
         <v>169.3440644706276</v>
       </c>
       <c r="L24" t="n">
-        <v>227.7039930363261</v>
+        <v>227.7039930363262</v>
       </c>
       <c r="M24" t="n">
         <v>265.7198197698931</v>
       </c>
       <c r="N24" t="n">
-        <v>272.7526327252015</v>
+        <v>272.7526327252016</v>
       </c>
       <c r="O24" t="n">
         <v>249.5153723915076</v>
@@ -32812,7 +32812,7 @@
         <v>133.8672258020248</v>
       </c>
       <c r="R24" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136418</v>
       </c>
       <c r="S24" t="n">
         <v>19.47937401290456</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8792052992837491</v>
+        <v>0.8792052992837492</v>
       </c>
       <c r="H25" t="n">
-        <v>7.816934388177339</v>
+        <v>7.81693438817734</v>
       </c>
       <c r="I25" t="n">
-        <v>26.44010118209675</v>
+        <v>26.44010118209676</v>
       </c>
       <c r="J25" t="n">
-        <v>62.15981465936106</v>
+        <v>62.15981465936107</v>
       </c>
       <c r="K25" t="n">
         <v>102.1476702258756</v>
@@ -32888,7 +32888,7 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.62145465184194</v>
+        <v>73.62145465184196</v>
       </c>
       <c r="R25" t="n">
         <v>39.53226736597657</v>
@@ -32900,7 +32900,7 @@
         <v>3.756604460576018</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04795665268820455</v>
+        <v>0.04795665268820456</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34128,28 +34128,28 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I41" t="n">
-        <v>75.56434172092617</v>
+        <v>75.56434172092615</v>
       </c>
       <c r="J41" t="n">
         <v>166.3557239643721</v>
       </c>
       <c r="K41" t="n">
-        <v>249.3241069498284</v>
+        <v>249.3241069498283</v>
       </c>
       <c r="L41" t="n">
         <v>309.3086014169004</v>
       </c>
       <c r="M41" t="n">
-        <v>344.165416463383</v>
+        <v>344.1654164633829</v>
       </c>
       <c r="N41" t="n">
-        <v>349.7343727156256</v>
+        <v>349.7343727156255</v>
       </c>
       <c r="O41" t="n">
-        <v>330.2442508561493</v>
+        <v>330.2442508561492</v>
       </c>
       <c r="P41" t="n">
-        <v>281.855827634948</v>
+        <v>281.8558276349479</v>
       </c>
       <c r="Q41" t="n">
         <v>211.6619883798888</v>
@@ -34158,10 +34158,10 @@
         <v>123.1221990954446</v>
       </c>
       <c r="S41" t="n">
-        <v>44.66435216822787</v>
+        <v>44.66435216822786</v>
       </c>
       <c r="T41" t="n">
-        <v>8.580063702311241</v>
+        <v>8.580063702311239</v>
       </c>
       <c r="U41" t="n">
         <v>0.1568029917041459</v>
@@ -34210,40 +34210,40 @@
         <v>36.10698606878417</v>
       </c>
       <c r="J42" t="n">
-        <v>99.0803295423796</v>
+        <v>99.08032954237959</v>
       </c>
       <c r="K42" t="n">
         <v>169.3440644706276</v>
       </c>
       <c r="L42" t="n">
-        <v>227.7039930363262</v>
+        <v>227.7039930363261</v>
       </c>
       <c r="M42" t="n">
         <v>265.7198197698931</v>
       </c>
       <c r="N42" t="n">
-        <v>272.7526327252016</v>
+        <v>272.7526327252015</v>
       </c>
       <c r="O42" t="n">
         <v>249.5153723915076</v>
       </c>
       <c r="P42" t="n">
-        <v>200.2580840079905</v>
+        <v>200.2580840079904</v>
       </c>
       <c r="Q42" t="n">
         <v>133.8672258020248</v>
       </c>
       <c r="R42" t="n">
-        <v>65.11216494136418</v>
+        <v>65.11216494136417</v>
       </c>
       <c r="S42" t="n">
-        <v>19.47937401290457</v>
+        <v>19.47937401290456</v>
       </c>
       <c r="T42" t="n">
-        <v>4.227047158880591</v>
+        <v>4.22704715888059</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06899424089576596</v>
+        <v>0.06899424089576595</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8792052992837494</v>
+        <v>0.8792052992837491</v>
       </c>
       <c r="H43" t="n">
-        <v>7.816934388177341</v>
+        <v>7.816934388177339</v>
       </c>
       <c r="I43" t="n">
-        <v>26.44010118209676</v>
+        <v>26.44010118209675</v>
       </c>
       <c r="J43" t="n">
-        <v>62.15981465936107</v>
+        <v>62.15981465936106</v>
       </c>
       <c r="K43" t="n">
         <v>102.1476702258756</v>
       </c>
       <c r="L43" t="n">
-        <v>130.7138496771495</v>
+        <v>130.7138496771494</v>
       </c>
       <c r="M43" t="n">
         <v>137.8194270504517</v>
@@ -34310,7 +34310,7 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.62145465184196</v>
+        <v>73.62145465184194</v>
       </c>
       <c r="R43" t="n">
         <v>39.53226736597657</v>
@@ -34319,10 +34319,10 @@
         <v>15.32215053388133</v>
       </c>
       <c r="T43" t="n">
-        <v>3.756604460576019</v>
+        <v>3.756604460576018</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04795665268820457</v>
+        <v>0.04795665268820455</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,28 +34365,28 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I44" t="n">
-        <v>75.56434172092617</v>
+        <v>75.56434172092615</v>
       </c>
       <c r="J44" t="n">
         <v>166.3557239643721</v>
       </c>
       <c r="K44" t="n">
-        <v>249.3241069498286</v>
+        <v>249.3241069498284</v>
       </c>
       <c r="L44" t="n">
         <v>309.3086014169004</v>
       </c>
       <c r="M44" t="n">
-        <v>344.165416463383</v>
+        <v>344.1654164633829</v>
       </c>
       <c r="N44" t="n">
-        <v>349.7343727156256</v>
+        <v>349.7343727156255</v>
       </c>
       <c r="O44" t="n">
-        <v>330.2442508561493</v>
+        <v>330.2442508561492</v>
       </c>
       <c r="P44" t="n">
-        <v>281.855827634948</v>
+        <v>281.8558276349479</v>
       </c>
       <c r="Q44" t="n">
         <v>211.6619883798888</v>
@@ -34395,10 +34395,10 @@
         <v>123.1221990954446</v>
       </c>
       <c r="S44" t="n">
-        <v>44.66435216822787</v>
+        <v>44.66435216822786</v>
       </c>
       <c r="T44" t="n">
-        <v>8.580063702311241</v>
+        <v>8.580063702311239</v>
       </c>
       <c r="U44" t="n">
         <v>0.1568029917041459</v>
@@ -34447,40 +34447,40 @@
         <v>36.10698606878417</v>
       </c>
       <c r="J45" t="n">
-        <v>99.0803295423796</v>
+        <v>99.08032954237959</v>
       </c>
       <c r="K45" t="n">
         <v>169.3440644706276</v>
       </c>
       <c r="L45" t="n">
-        <v>227.7039930363262</v>
+        <v>227.7039930363261</v>
       </c>
       <c r="M45" t="n">
         <v>265.7198197698931</v>
       </c>
       <c r="N45" t="n">
-        <v>272.7526327252016</v>
+        <v>272.7526327252015</v>
       </c>
       <c r="O45" t="n">
         <v>249.5153723915076</v>
       </c>
       <c r="P45" t="n">
-        <v>200.2580840079905</v>
+        <v>200.2580840079904</v>
       </c>
       <c r="Q45" t="n">
         <v>133.8672258020248</v>
       </c>
       <c r="R45" t="n">
-        <v>65.11216494136418</v>
+        <v>65.11216494136417</v>
       </c>
       <c r="S45" t="n">
-        <v>19.47937401290457</v>
+        <v>19.47937401290456</v>
       </c>
       <c r="T45" t="n">
-        <v>4.227047158880591</v>
+        <v>4.22704715888059</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06899424089576596</v>
+        <v>0.06899424089576595</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8792052992837494</v>
+        <v>0.8792052992837491</v>
       </c>
       <c r="H46" t="n">
-        <v>7.816934388177341</v>
+        <v>7.816934388177339</v>
       </c>
       <c r="I46" t="n">
-        <v>26.44010118209676</v>
+        <v>26.44010118209675</v>
       </c>
       <c r="J46" t="n">
-        <v>62.15981465936107</v>
+        <v>62.15981465936106</v>
       </c>
       <c r="K46" t="n">
         <v>102.1476702258756</v>
       </c>
       <c r="L46" t="n">
-        <v>130.7138496771495</v>
+        <v>130.7138496771494</v>
       </c>
       <c r="M46" t="n">
         <v>137.8194270504517</v>
@@ -34547,7 +34547,7 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.62145465184196</v>
+        <v>73.62145465184194</v>
       </c>
       <c r="R46" t="n">
         <v>39.53226736597657</v>
@@ -34556,10 +34556,10 @@
         <v>15.32215053388133</v>
       </c>
       <c r="T46" t="n">
-        <v>3.756604460576019</v>
+        <v>3.756604460576018</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04795665268820457</v>
+        <v>0.04795665268820455</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,22 +35406,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.01643917696262</v>
+        <v>41.01643917696263</v>
       </c>
       <c r="J11" t="n">
         <v>136.9357644787855</v>
       </c>
       <c r="K11" t="n">
-        <v>213.5595061550189</v>
+        <v>213.559506155019</v>
       </c>
       <c r="L11" t="n">
-        <v>270.9965589842773</v>
+        <v>270.9965589842774</v>
       </c>
       <c r="M11" t="n">
-        <v>306.734153563951</v>
+        <v>306.7341535639511</v>
       </c>
       <c r="N11" t="n">
-        <v>312.4547498811794</v>
+        <v>312.4547498811795</v>
       </c>
       <c r="O11" t="n">
         <v>292.8532915001251</v>
@@ -35433,7 +35433,7 @@
         <v>175.5373137752907</v>
       </c>
       <c r="R11" t="n">
-        <v>88.08954920064807</v>
+        <v>88.08954920064809</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.93459931878416</v>
+        <v>43.62884764647289</v>
       </c>
       <c r="J12" t="n">
-        <v>78.46921520904623</v>
+        <v>237.5889489302276</v>
       </c>
       <c r="K12" t="n">
         <v>146.9448306372942</v>
       </c>
       <c r="L12" t="n">
-        <v>220.0063597779681</v>
+        <v>205.1889063220965</v>
       </c>
       <c r="M12" t="n">
         <v>242.6230392575651</v>
       </c>
       <c r="N12" t="n">
-        <v>525.9268404631495</v>
+        <v>251.4096045116599</v>
       </c>
       <c r="O12" t="n">
         <v>226.3434826692853</v>
       </c>
       <c r="P12" t="n">
-        <v>178.4872428031617</v>
+        <v>178.4872428031618</v>
       </c>
       <c r="Q12" t="n">
         <v>111.1201875130462</v>
       </c>
       <c r="R12" t="n">
-        <v>41.43924554722001</v>
+        <v>147.9599529057107</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.52305867545918</v>
+        <v>120.2318633706318</v>
       </c>
       <c r="K13" t="n">
-        <v>81.18301577316353</v>
+        <v>330.9634290196504</v>
       </c>
       <c r="L13" t="n">
-        <v>234.9665484757408</v>
+        <v>108.7950897814482</v>
       </c>
       <c r="M13" t="n">
-        <v>525.9268404631495</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7934881411574</v>
+        <v>515.846945557198</v>
       </c>
       <c r="O13" t="n">
-        <v>483.2899844637744</v>
+        <v>101.7724851676095</v>
       </c>
       <c r="P13" t="n">
-        <v>399.870442057515</v>
+        <v>177.0167246902729</v>
       </c>
       <c r="Q13" t="n">
         <v>201.9044144909954</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.01643917696262</v>
+        <v>41.01643917696265</v>
       </c>
       <c r="J14" t="n">
-        <v>136.9357644787855</v>
+        <v>136.9357644787856</v>
       </c>
       <c r="K14" t="n">
-        <v>213.5595061550189</v>
+        <v>213.559506155019</v>
       </c>
       <c r="L14" t="n">
-        <v>270.9965589842773</v>
+        <v>270.9965589842774</v>
       </c>
       <c r="M14" t="n">
-        <v>306.734153563951</v>
+        <v>306.7341535639511</v>
       </c>
       <c r="N14" t="n">
-        <v>312.4547498811794</v>
+        <v>312.4547498811795</v>
       </c>
       <c r="O14" t="n">
         <v>292.8532915001251</v>
       </c>
       <c r="P14" t="n">
-        <v>244.2804658247165</v>
+        <v>244.2804658247166</v>
       </c>
       <c r="Q14" t="n">
         <v>175.5373137752907</v>
       </c>
       <c r="R14" t="n">
-        <v>88.08954920064807</v>
+        <v>88.08954920064809</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.93459931878416</v>
+        <v>19.93459931878417</v>
       </c>
       <c r="J15" t="n">
-        <v>78.46921520904623</v>
+        <v>367.803904616407</v>
       </c>
       <c r="K15" t="n">
         <v>146.9448306372942</v>
       </c>
       <c r="L15" t="n">
-        <v>205.1889063220965</v>
+        <v>205.1889063220966</v>
       </c>
       <c r="M15" t="n">
         <v>242.6230392575651</v>
       </c>
       <c r="N15" t="n">
-        <v>251.4096045116598</v>
+        <v>251.4096045116599</v>
       </c>
       <c r="O15" t="n">
         <v>226.3434826692853</v>
       </c>
       <c r="P15" t="n">
-        <v>178.4872428031617</v>
+        <v>178.4872428031618</v>
       </c>
       <c r="Q15" t="n">
-        <v>293.9341695619167</v>
+        <v>111.1201875130463</v>
       </c>
       <c r="R15" t="n">
-        <v>147.9599529057107</v>
+        <v>41.43924554722003</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2318633706318</v>
+        <v>41.5230586754592</v>
       </c>
       <c r="K16" t="n">
-        <v>81.18301577316353</v>
+        <v>330.9634290196505</v>
       </c>
       <c r="L16" t="n">
-        <v>156.2577437805678</v>
+        <v>488.9858913886856</v>
       </c>
       <c r="M16" t="n">
-        <v>525.9268404631493</v>
+        <v>154.4936487877811</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7934881411574</v>
+        <v>515.8469455571981</v>
       </c>
       <c r="O16" t="n">
-        <v>483.2899844637744</v>
+        <v>101.7724851676095</v>
       </c>
       <c r="P16" t="n">
-        <v>399.870442057515</v>
+        <v>399.8704420575151</v>
       </c>
       <c r="Q16" t="n">
-        <v>201.9044144909954</v>
+        <v>49.001891887057</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,10 +35880,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696265</v>
       </c>
       <c r="J17" t="n">
-        <v>136.9357644787855</v>
+        <v>136.9357644787856</v>
       </c>
       <c r="K17" t="n">
         <v>213.559506155019</v>
@@ -35901,7 +35901,7 @@
         <v>292.8532915001251</v>
       </c>
       <c r="P17" t="n">
-        <v>244.2804658247165</v>
+        <v>244.2804658247166</v>
       </c>
       <c r="Q17" t="n">
         <v>175.5373137752907</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>43.62884764647289</v>
+        <v>19.93459931878417</v>
       </c>
       <c r="J18" t="n">
-        <v>344.1096562887186</v>
+        <v>367.803904616407</v>
       </c>
       <c r="K18" t="n">
         <v>146.9448306372942</v>
       </c>
       <c r="L18" t="n">
-        <v>205.1889063220965</v>
+        <v>205.1889063220966</v>
       </c>
       <c r="M18" t="n">
         <v>242.6230392575651</v>
@@ -35983,7 +35983,7 @@
         <v>178.4872428031618</v>
       </c>
       <c r="Q18" t="n">
-        <v>111.1201875130462</v>
+        <v>111.1201875130463</v>
       </c>
       <c r="R18" t="n">
         <v>41.43924554722003</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.52305867545918</v>
+        <v>41.5230586754592</v>
       </c>
       <c r="K19" t="n">
-        <v>330.9634290196504</v>
+        <v>330.9634290196505</v>
       </c>
       <c r="L19" t="n">
         <v>488.9858913886856</v>
       </c>
       <c r="M19" t="n">
-        <v>525.9268404631495</v>
+        <v>115.2439871589659</v>
       </c>
       <c r="N19" t="n">
         <v>113.7934881411574</v>
       </c>
       <c r="O19" t="n">
-        <v>132.3927509082815</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P19" t="n">
         <v>399.8704420575151</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.00189188705698</v>
+        <v>108.7875116357479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>19.93459931878417</v>
       </c>
       <c r="J21" t="n">
-        <v>78.46921520904625</v>
+        <v>367.803904616407</v>
       </c>
       <c r="K21" t="n">
         <v>146.9448306372942</v>
@@ -36211,13 +36211,13 @@
         <v>242.6230392575651</v>
       </c>
       <c r="N21" t="n">
-        <v>525.9268404631496</v>
+        <v>251.4096045116599</v>
       </c>
       <c r="O21" t="n">
         <v>226.3434826692853</v>
       </c>
       <c r="P21" t="n">
-        <v>193.3046962590328</v>
+        <v>178.4872428031618</v>
       </c>
       <c r="Q21" t="n">
         <v>111.1201875130463</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>120.2318633706318</v>
+        <v>41.5230586754592</v>
       </c>
       <c r="K22" t="n">
         <v>81.18301577316356</v>
       </c>
       <c r="L22" t="n">
-        <v>488.9858913886856</v>
+        <v>301.7309718184958</v>
       </c>
       <c r="M22" t="n">
-        <v>115.2439871589659</v>
+        <v>525.9268404631497</v>
       </c>
       <c r="N22" t="n">
         <v>515.8469455571981</v>
       </c>
       <c r="O22" t="n">
-        <v>159.1912327438004</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P22" t="n">
-        <v>399.8704420575151</v>
+        <v>83.95508390265891</v>
       </c>
       <c r="Q22" t="n">
-        <v>201.9044144909954</v>
+        <v>49.001891887057</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>136.9357644787856</v>
       </c>
       <c r="K23" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550191</v>
       </c>
       <c r="L23" t="n">
         <v>270.9965589842774</v>
@@ -36369,10 +36369,10 @@
         <v>306.7341535639511</v>
       </c>
       <c r="N23" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811796</v>
       </c>
       <c r="O23" t="n">
-        <v>292.8532915001251</v>
+        <v>292.8532915001252</v>
       </c>
       <c r="P23" t="n">
         <v>244.2804658247166</v>
@@ -36381,7 +36381,7 @@
         <v>175.5373137752907</v>
       </c>
       <c r="R23" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064812</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>367.803904616407</v>
       </c>
       <c r="K24" t="n">
-        <v>146.9448306372942</v>
+        <v>146.9448306372943</v>
       </c>
       <c r="L24" t="n">
         <v>205.1889063220966</v>
@@ -36451,7 +36451,7 @@
         <v>251.4096045116599</v>
       </c>
       <c r="O24" t="n">
-        <v>226.3434826692853</v>
+        <v>226.3434826692854</v>
       </c>
       <c r="P24" t="n">
         <v>178.4872428031618</v>
@@ -36460,7 +36460,7 @@
         <v>111.1201875130463</v>
       </c>
       <c r="R24" t="n">
-        <v>41.43924554722003</v>
+        <v>41.43924554722004</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>120.2318633706318</v>
       </c>
       <c r="K25" t="n">
-        <v>81.18301577316356</v>
+        <v>81.18301577316358</v>
       </c>
       <c r="L25" t="n">
-        <v>164.8871396687115</v>
+        <v>108.7950897814482</v>
       </c>
       <c r="M25" t="n">
-        <v>115.2439871589659</v>
+        <v>324.2385596501677</v>
       </c>
       <c r="N25" t="n">
         <v>515.8469455571981</v>
@@ -36536,7 +36536,7 @@
         <v>399.8704420575151</v>
       </c>
       <c r="Q25" t="n">
-        <v>201.9044144909954</v>
+        <v>49.00189188705701</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>19.93459931878417</v>
       </c>
       <c r="J27" t="n">
-        <v>78.46921520904625</v>
+        <v>261.2831972579162</v>
       </c>
       <c r="K27" t="n">
         <v>146.9448306372942</v>
@@ -36691,7 +36691,7 @@
         <v>226.3434826692853</v>
       </c>
       <c r="P27" t="n">
-        <v>361.3012248520317</v>
+        <v>178.4872428031618</v>
       </c>
       <c r="Q27" t="n">
         <v>111.1201875130463</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>120.2318633706318</v>
+        <v>41.5230586754592</v>
       </c>
       <c r="K28" t="n">
         <v>81.18301577316356</v>
@@ -36764,16 +36764,16 @@
         <v>525.9268404631496</v>
       </c>
       <c r="N28" t="n">
-        <v>515.8469455571981</v>
+        <v>392.8674694393888</v>
       </c>
       <c r="O28" t="n">
-        <v>128.6991810468541</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P28" t="n">
         <v>399.8704420575151</v>
       </c>
       <c r="Q28" t="n">
-        <v>201.9044144909954</v>
+        <v>49.001891887057</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>19.93459931878417</v>
       </c>
       <c r="J30" t="n">
-        <v>78.46921520904625</v>
+        <v>261.2831972579162</v>
       </c>
       <c r="K30" t="n">
         <v>146.9448306372942</v>
@@ -36928,7 +36928,7 @@
         <v>226.3434826692853</v>
       </c>
       <c r="P30" t="n">
-        <v>361.3012248520317</v>
+        <v>178.4872428031618</v>
       </c>
       <c r="Q30" t="n">
         <v>111.1201875130463</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>120.2318633706318</v>
+        <v>41.5230586754592</v>
       </c>
       <c r="K31" t="n">
         <v>330.9634290196505</v>
       </c>
       <c r="L31" t="n">
-        <v>287.9948298302465</v>
+        <v>488.9858913886856</v>
       </c>
       <c r="M31" t="n">
-        <v>525.9268404631496</v>
+        <v>115.2439871589659</v>
       </c>
       <c r="N31" t="n">
-        <v>113.7934881411574</v>
+        <v>515.8469455571981</v>
       </c>
       <c r="O31" t="n">
-        <v>101.7724851676095</v>
+        <v>456.9375049512811</v>
       </c>
       <c r="P31" t="n">
-        <v>399.8704420575151</v>
+        <v>83.95508390265891</v>
       </c>
       <c r="Q31" t="n">
-        <v>201.9044144909954</v>
+        <v>49.001891887057</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>19.93459931878417</v>
       </c>
       <c r="J33" t="n">
-        <v>78.46921520904625</v>
+        <v>261.2831972579162</v>
       </c>
       <c r="K33" t="n">
         <v>146.9448306372942</v>
@@ -37165,7 +37165,7 @@
         <v>226.3434826692853</v>
       </c>
       <c r="P33" t="n">
-        <v>361.3012248520317</v>
+        <v>178.4872428031618</v>
       </c>
       <c r="Q33" t="n">
         <v>111.1201875130463</v>
@@ -37229,25 +37229,25 @@
         <v>41.5230586754592</v>
       </c>
       <c r="K34" t="n">
-        <v>237.8465261644028</v>
+        <v>81.18301577316356</v>
       </c>
       <c r="L34" t="n">
         <v>488.9858913886856</v>
       </c>
       <c r="M34" t="n">
-        <v>115.2439871589659</v>
+        <v>338.6719208929591</v>
       </c>
       <c r="N34" t="n">
-        <v>113.7934881411574</v>
+        <v>515.8469455571981</v>
       </c>
       <c r="O34" t="n">
         <v>483.2899844637744</v>
       </c>
       <c r="P34" t="n">
-        <v>399.8704420575151</v>
+        <v>83.95508390265891</v>
       </c>
       <c r="Q34" t="n">
-        <v>201.9044144909954</v>
+        <v>49.001891887057</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>19.93459931878417</v>
       </c>
       <c r="J36" t="n">
-        <v>367.803904616407</v>
+        <v>261.2831972579162</v>
       </c>
       <c r="K36" t="n">
         <v>146.9448306372942</v>
@@ -37408,7 +37408,7 @@
         <v>111.1201875130463</v>
       </c>
       <c r="R36" t="n">
-        <v>41.43924554722003</v>
+        <v>147.9599529057107</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.2318633706318</v>
+        <v>41.5230586754592</v>
       </c>
       <c r="K37" t="n">
-        <v>330.9634290196505</v>
+        <v>81.18301577316356</v>
       </c>
       <c r="L37" t="n">
         <v>488.9858913886856</v>
@@ -37478,10 +37478,10 @@
         <v>515.8469455571981</v>
       </c>
       <c r="O37" t="n">
-        <v>378.2287002561085</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P37" t="n">
-        <v>83.95508390265891</v>
+        <v>307.3830176366525</v>
       </c>
       <c r="Q37" t="n">
         <v>49.001891887057</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.93459931878417</v>
+        <v>43.62884764647289</v>
       </c>
       <c r="J39" t="n">
-        <v>78.46921520904625</v>
+        <v>237.5889489302275</v>
       </c>
       <c r="K39" t="n">
         <v>146.9448306372942</v>
@@ -37636,7 +37636,7 @@
         <v>251.4096045116599</v>
       </c>
       <c r="O39" t="n">
-        <v>515.678172076646</v>
+        <v>226.3434826692853</v>
       </c>
       <c r="P39" t="n">
         <v>178.4872428031618</v>
@@ -37645,7 +37645,7 @@
         <v>111.1201875130463</v>
       </c>
       <c r="R39" t="n">
-        <v>41.43924554722003</v>
+        <v>147.9599529057107</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>120.2318633706318</v>
+        <v>41.5230586754592</v>
       </c>
       <c r="K40" t="n">
-        <v>330.9634290196505</v>
+        <v>237.8465261644028</v>
       </c>
       <c r="L40" t="n">
         <v>488.9858913886856</v>
@@ -37712,13 +37712,13 @@
         <v>115.2439871589659</v>
       </c>
       <c r="N40" t="n">
-        <v>257.8831387455937</v>
+        <v>113.7934881411574</v>
       </c>
       <c r="O40" t="n">
         <v>483.2899844637744</v>
       </c>
       <c r="P40" t="n">
-        <v>83.95508390265891</v>
+        <v>399.8704420575151</v>
       </c>
       <c r="Q40" t="n">
         <v>201.9044144909954</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.01643917696266</v>
+        <v>41.01643917696265</v>
       </c>
       <c r="J41" t="n">
         <v>136.9357644787856</v>
       </c>
       <c r="K41" t="n">
-        <v>213.5595061550191</v>
+        <v>213.559506155019</v>
       </c>
       <c r="L41" t="n">
-        <v>270.9965589842775</v>
+        <v>270.9965589842774</v>
       </c>
       <c r="M41" t="n">
-        <v>306.7341535639512</v>
+        <v>306.7341535639511</v>
       </c>
       <c r="N41" t="n">
-        <v>312.4547498811796</v>
+        <v>312.4547498811795</v>
       </c>
       <c r="O41" t="n">
-        <v>292.8532915001252</v>
+        <v>292.8532915001251</v>
       </c>
       <c r="P41" t="n">
-        <v>244.2804658247167</v>
+        <v>244.2804658247166</v>
       </c>
       <c r="Q41" t="n">
-        <v>175.5373137752908</v>
+        <v>175.5373137752907</v>
       </c>
       <c r="R41" t="n">
-        <v>88.08954920064812</v>
+        <v>88.08954920064809</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.93459931878417</v>
+        <v>43.62884764647289</v>
       </c>
       <c r="J42" t="n">
-        <v>78.46921520904627</v>
+        <v>237.5889489302275</v>
       </c>
       <c r="K42" t="n">
-        <v>146.9448306372943</v>
+        <v>146.9448306372942</v>
       </c>
       <c r="L42" t="n">
         <v>205.1889063220966</v>
       </c>
       <c r="M42" t="n">
-        <v>242.6230392575652</v>
+        <v>242.6230392575651</v>
       </c>
       <c r="N42" t="n">
-        <v>525.9268404631497</v>
+        <v>251.4096045116599</v>
       </c>
       <c r="O42" t="n">
-        <v>226.3434826692854</v>
+        <v>226.3434826692853</v>
       </c>
       <c r="P42" t="n">
         <v>178.4872428031618</v>
@@ -37882,7 +37882,7 @@
         <v>111.1201875130463</v>
       </c>
       <c r="R42" t="n">
-        <v>56.25669900309065</v>
+        <v>147.9599529057107</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>41.52305867545921</v>
+        <v>41.5230586754592</v>
       </c>
       <c r="K43" t="n">
-        <v>81.18301577316359</v>
+        <v>81.18301577316356</v>
       </c>
       <c r="L43" t="n">
-        <v>488.9858913886856</v>
+        <v>301.7309718184955</v>
       </c>
       <c r="M43" t="n">
-        <v>525.9268404631497</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="N43" t="n">
-        <v>113.7934881411575</v>
+        <v>515.8469455571981</v>
       </c>
       <c r="O43" t="n">
         <v>483.2899844637744</v>
       </c>
       <c r="P43" t="n">
-        <v>145.8510991445711</v>
+        <v>83.95508390265891</v>
       </c>
       <c r="Q43" t="n">
-        <v>201.9044144909954</v>
+        <v>49.001891887057</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.01643917696266</v>
+        <v>41.01643917696265</v>
       </c>
       <c r="J44" t="n">
         <v>136.9357644787856</v>
       </c>
       <c r="K44" t="n">
-        <v>213.5595061550192</v>
+        <v>213.559506155019</v>
       </c>
       <c r="L44" t="n">
-        <v>270.9965589842775</v>
+        <v>270.9965589842774</v>
       </c>
       <c r="M44" t="n">
-        <v>306.7341535639512</v>
+        <v>306.7341535639511</v>
       </c>
       <c r="N44" t="n">
-        <v>312.4547498811796</v>
+        <v>312.4547498811795</v>
       </c>
       <c r="O44" t="n">
-        <v>292.8532915001252</v>
+        <v>292.8532915001251</v>
       </c>
       <c r="P44" t="n">
-        <v>244.2804658247167</v>
+        <v>244.2804658247166</v>
       </c>
       <c r="Q44" t="n">
-        <v>175.5373137752908</v>
+        <v>175.5373137752907</v>
       </c>
       <c r="R44" t="n">
-        <v>88.08954920064812</v>
+        <v>88.08954920064809</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.93459931878417</v>
+        <v>43.62884764647289</v>
       </c>
       <c r="J45" t="n">
-        <v>78.46921520904627</v>
+        <v>78.46921520904625</v>
       </c>
       <c r="K45" t="n">
-        <v>146.9448306372943</v>
+        <v>146.9448306372942</v>
       </c>
       <c r="L45" t="n">
-        <v>494.523595729457</v>
+        <v>205.1889063220966</v>
       </c>
       <c r="M45" t="n">
-        <v>242.6230392575652</v>
+        <v>242.6230392575651</v>
       </c>
       <c r="N45" t="n">
         <v>251.4096045116599</v>
       </c>
       <c r="O45" t="n">
-        <v>226.3434826692854</v>
+        <v>226.3434826692853</v>
       </c>
       <c r="P45" t="n">
         <v>178.4872428031618</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.1201875130463</v>
+        <v>270.2399212342276</v>
       </c>
       <c r="R45" t="n">
-        <v>41.43924554722004</v>
+        <v>147.9599529057107</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>41.52305867545921</v>
+        <v>41.5230586754592</v>
       </c>
       <c r="K46" t="n">
-        <v>237.8465261644032</v>
+        <v>81.18301577316356</v>
       </c>
       <c r="L46" t="n">
-        <v>488.9858913886856</v>
+        <v>301.7309718184955</v>
       </c>
       <c r="M46" t="n">
-        <v>115.2439871589659</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="N46" t="n">
-        <v>113.7934881411575</v>
+        <v>515.8469455571981</v>
       </c>
       <c r="O46" t="n">
         <v>483.2899844637744</v>
       </c>
       <c r="P46" t="n">
-        <v>399.8704420575151</v>
+        <v>83.95508390265891</v>
       </c>
       <c r="Q46" t="n">
-        <v>201.9044144909954</v>
+        <v>49.001891887057</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
